--- a/template/hca_template_contributor.xlsx
+++ b/template/hca_template_contributor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenios/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenios/Documents/GitHub/geo_to_hca/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFB69A6-9E54-7A48-89EF-691B8C23AF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D828772E-84E4-C846-82C0-786641245762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="21360" windowHeight="17600" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14920" yWindow="5860" windowWidth="21360" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -3640,7 +3640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3879,7 +3879,7 @@
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4694,7 +4694,7 @@
       <selection sqref="A1:XFD1"/>
       <selection pane="topRight" sqref="A1:XFD1"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5479,7 +5479,7 @@
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5749,12 +5749,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5767,12 +5767,13 @@
     <col min="14" max="14" width="35.6640625" customWidth="1"/>
     <col min="15" max="15" width="42.6640625" customWidth="1"/>
     <col min="16" max="16" width="33.6640625" customWidth="1"/>
-    <col min="17" max="25" width="25.6640625" customWidth="1"/>
+    <col min="17" max="17" width="25.6640625" customWidth="1"/>
+    <col min="18" max="25" width="25.6640625" hidden="1" customWidth="1"/>
     <col min="26" max="27" width="0" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="25.6640625" customWidth="1"/>
+    <col min="28" max="28" width="25.6640625" hidden="1" customWidth="1"/>
     <col min="29" max="30" width="0" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="25.6640625" customWidth="1"/>
-    <col min="32" max="32" width="37.6640625" customWidth="1"/>
+    <col min="31" max="31" width="25.6640625" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="37.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5825,7 +5826,7 @@
         <v>639</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>310</v>
+        <v>1027</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>313</v>
@@ -6206,7 +6207,7 @@
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6451,7 +6452,7 @@
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7371,7 +7372,7 @@
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7700,9 +7701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7888,9 +7887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7999,9 +7996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8074,7 +8069,7 @@
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8994,7 +8989,7 @@
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9227,7 +9222,7 @@
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10169,7 +10164,7 @@
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10403,7 +10398,7 @@
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/template/hca_template_contributor.xlsx
+++ b/template/hca_template_contributor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenios/Documents/GitHub/geo_to_hca/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D828772E-84E4-C846-82C0-786641245762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEDDF8F-C76A-394D-9452-2483A6BCD5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14920" yWindow="5860" windowWidth="21360" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="21360" windowHeight="17600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="1043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="1052">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -3083,9 +3083,6 @@
     <t>project.data_use_restriction</t>
   </si>
   <si>
-    <t>CAUSE OF DEATH</t>
-  </si>
-  <si>
     <t>TIMECOURSE VALUE</t>
   </si>
   <si>
@@ -3177,6 +3174,36 @@
   </si>
   <si>
     <t>run1; sequencing_batch_37; NV0087</t>
+  </si>
+  <si>
+    <t>COMORBIDITIES</t>
+  </si>
+  <si>
+    <t>COMORBIDITIES ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>COMORBIDITIES ONTOLOGY LABEL</t>
+  </si>
+  <si>
+    <t>CAUSE OF DEATH (Required)</t>
+  </si>
+  <si>
+    <t>Primary disease should be described in Known disease(s) field. Leave empty if no comorbidities are known. For example: asthma; type 2 diabetes mellitus; Hypertension</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: MONDO:0004979; MONDO:0005148; HP:0000822</t>
+  </si>
+  <si>
+    <t>For example: asthma; type 2 diabetes mellitus; Hypertension</t>
+  </si>
+  <si>
+    <t>donor_organism.comorbidities.text</t>
+  </si>
+  <si>
+    <t>donor_organism.comorbidities.ontology</t>
+  </si>
+  <si>
+    <t>donor_organism.comorbidities.ontology_label</t>
   </si>
 </sst>
 </file>
@@ -3640,7 +3667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3696,7 +3723,7 @@
         <v>1007</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -3744,7 +3771,7 @@
         <v>1008</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -3792,7 +3819,7 @@
         <v>1009</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -3840,7 +3867,7 @@
         <v>1010</v>
       </c>
       <c r="N4" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4009,7 +4036,7 @@
         <v>564</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>571</v>
@@ -4018,10 +4045,10 @@
         <v>575</v>
       </c>
       <c r="AJ1" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>1012</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>1013</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>305</v>
@@ -4042,10 +4069,10 @@
         <v>582</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>313</v>
@@ -4774,13 +4801,13 @@
         <v>739</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>1030</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>1031</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>1032</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>952</v>
@@ -5811,7 +5838,7 @@
         <v>628</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>632</v>
@@ -5826,7 +5853,7 @@
         <v>639</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>313</v>
@@ -5909,7 +5936,7 @@
         <v>629</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>633</v>
@@ -6007,7 +6034,7 @@
         <v>630</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>634</v>
@@ -6265,7 +6292,7 @@
         <v>1003</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>906</v>
@@ -6310,7 +6337,7 @@
         <v>1004</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
@@ -6349,7 +6376,7 @@
         <v>1005</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
@@ -6398,7 +6425,7 @@
         <v>1006</v>
       </c>
       <c r="L4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="M4" t="s">
         <v>921</v>
@@ -6523,7 +6550,7 @@
         <v>639</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>313</v>
@@ -7939,7 +7966,7 @@
     </row>
     <row r="3" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>89</v>
@@ -8062,9 +8089,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:BY5"/>
+  <dimension ref="A1:CB5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
@@ -8091,28 +8118,30 @@
     <col min="27" max="28" width="0" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="25.6640625" customWidth="1"/>
     <col min="30" max="31" width="8.83203125" hidden="1" customWidth="1"/>
-    <col min="32" max="33" width="25.6640625" customWidth="1"/>
-    <col min="34" max="34" width="28.6640625" customWidth="1"/>
-    <col min="35" max="37" width="25.6640625" customWidth="1"/>
-    <col min="38" max="38" width="31.6640625" customWidth="1"/>
-    <col min="39" max="46" width="25.6640625" customWidth="1"/>
-    <col min="47" max="48" width="0" hidden="1" customWidth="1"/>
-    <col min="49" max="50" width="25.6640625" customWidth="1"/>
-    <col min="51" max="52" width="0" hidden="1" customWidth="1"/>
-    <col min="53" max="54" width="25.6640625" customWidth="1"/>
-    <col min="55" max="56" width="0" hidden="1" customWidth="1"/>
-    <col min="57" max="57" width="27.6640625" customWidth="1"/>
-    <col min="58" max="58" width="26.6640625" customWidth="1"/>
-    <col min="59" max="60" width="8.83203125" hidden="1" customWidth="1"/>
-    <col min="61" max="70" width="25.6640625" customWidth="1"/>
-    <col min="71" max="72" width="0" hidden="1" customWidth="1"/>
-    <col min="73" max="73" width="25.6640625" customWidth="1"/>
+    <col min="32" max="32" width="19.83203125" customWidth="1"/>
+    <col min="33" max="34" width="8.83203125" hidden="1" customWidth="1"/>
+    <col min="35" max="36" width="25.6640625" customWidth="1"/>
+    <col min="37" max="37" width="28.6640625" customWidth="1"/>
+    <col min="38" max="40" width="25.6640625" customWidth="1"/>
+    <col min="41" max="41" width="31.6640625" customWidth="1"/>
+    <col min="42" max="49" width="25.6640625" customWidth="1"/>
+    <col min="50" max="51" width="0" hidden="1" customWidth="1"/>
+    <col min="52" max="53" width="25.6640625" customWidth="1"/>
+    <col min="54" max="55" width="0" hidden="1" customWidth="1"/>
+    <col min="56" max="57" width="25.6640625" customWidth="1"/>
+    <col min="58" max="59" width="0" hidden="1" customWidth="1"/>
+    <col min="60" max="60" width="27.6640625" customWidth="1"/>
+    <col min="61" max="61" width="26.6640625" customWidth="1"/>
+    <col min="62" max="63" width="8.83203125" hidden="1" customWidth="1"/>
+    <col min="64" max="73" width="25.6640625" customWidth="1"/>
     <col min="74" max="75" width="0" hidden="1" customWidth="1"/>
     <col min="76" max="76" width="25.6640625" customWidth="1"/>
-    <col min="77" max="77" width="37.6640625" customWidth="1"/>
+    <col min="77" max="78" width="0" hidden="1" customWidth="1"/>
+    <col min="79" max="79" width="25.6640625" customWidth="1"/>
+    <col min="80" max="80" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:80" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>115</v>
       </c>
@@ -8207,98 +8236,104 @@
         <v>215</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="BH1" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="BF1" s="1" t="s">
-        <v>1013</v>
-      </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="BJ1" s="1"/>
-      <c r="BK1" s="1"/>
-      <c r="BL1" s="1"/>
       <c r="BM1" s="1"/>
       <c r="BN1" s="1"/>
       <c r="BO1" s="1"/>
@@ -8312,8 +8347,11 @@
       <c r="BW1" s="1"/>
       <c r="BX1" s="1"/>
       <c r="BY1" s="1"/>
-    </row>
-    <row r="2" spans="1:77" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BZ1" s="1"/>
+      <c r="CA1" s="1"/>
+      <c r="CB1" s="1"/>
+    </row>
+    <row r="2" spans="1:80" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>116</v>
       </c>
@@ -8408,98 +8446,104 @@
         <v>78</v>
       </c>
       <c r="AF2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI2" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="BB2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BE2" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BF2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BD2" s="2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BH2" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="BF2" s="2" t="s">
+      <c r="BI2" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BJ2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BK2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BI2" s="2" t="s">
+      <c r="BL2" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="BJ2" s="2"/>
-      <c r="BK2" s="2"/>
-      <c r="BL2" s="2"/>
       <c r="BM2" s="2"/>
       <c r="BN2" s="2"/>
       <c r="BO2" s="2"/>
@@ -8513,8 +8557,11 @@
       <c r="BW2" s="2"/>
       <c r="BX2" s="2"/>
       <c r="BY2" s="2"/>
-    </row>
-    <row r="3" spans="1:77" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BZ2" s="2"/>
+      <c r="CA2" s="2"/>
+      <c r="CB2" s="2"/>
+    </row>
+    <row r="3" spans="1:80" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -8603,98 +8650,104 @@
         <v>960</v>
       </c>
       <c r="AF3" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AI3" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AV3" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AW3" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AX3" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="AV3" s="2" t="s">
+      <c r="AY3" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="AZ3" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="AX3" s="2" t="s">
+      <c r="BA3" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="AY3" s="2" t="s">
+      <c r="BB3" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="AZ3" s="2" t="s">
+      <c r="BC3" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="BA3" s="2" t="s">
+      <c r="BD3" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="BB3" s="2" t="s">
+      <c r="BE3" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="BC3" s="2" t="s">
+      <c r="BF3" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="BD3" s="2" t="s">
+      <c r="BG3" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="BE3" s="2" t="s">
+      <c r="BH3" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="BF3" s="2" t="s">
+      <c r="BI3" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="BG3" s="2" t="s">
+      <c r="BJ3" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="BH3" s="2" t="s">
+      <c r="BK3" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="BI3" s="2" t="s">
+      <c r="BL3" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="BJ3" s="2"/>
-      <c r="BK3" s="2"/>
-      <c r="BL3" s="2"/>
       <c r="BM3" s="2"/>
       <c r="BN3" s="2"/>
       <c r="BO3" s="2"/>
@@ -8708,8 +8761,11 @@
       <c r="BW3" s="2"/>
       <c r="BX3" s="2"/>
       <c r="BY3" s="2"/>
-    </row>
-    <row r="4" spans="1:77" hidden="1" x14ac:dyDescent="0.2">
+      <c r="BZ3" s="2"/>
+      <c r="CA3" s="2"/>
+      <c r="CB3" s="2"/>
+    </row>
+    <row r="4" spans="1:80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -8804,97 +8860,106 @@
         <v>216</v>
       </c>
       <c r="AF4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AI4" t="s">
         <v>219</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AJ4" t="s">
         <v>223</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AK4" t="s">
         <v>227</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AL4" t="s">
         <v>231</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AM4" t="s">
         <v>235</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AN4" t="s">
         <v>239</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AO4" t="s">
         <v>243</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AP4" t="s">
         <v>247</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AQ4" t="s">
         <v>251</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AR4" t="s">
         <v>255</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AS4" t="s">
         <v>259</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AT4" t="s">
         <v>263</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AU4" t="s">
         <v>267</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AV4" t="s">
         <v>271</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AW4" t="s">
         <v>273</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AX4" t="s">
         <v>275</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AY4" t="s">
         <v>277</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AZ4" t="s">
         <v>281</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="BA4" t="s">
         <v>285</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="BB4" t="s">
         <v>288</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BC4" t="s">
         <v>290</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BD4" t="s">
         <v>294</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BE4" t="s">
         <v>297</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BF4" t="s">
         <v>300</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BG4" t="s">
         <v>302</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BH4" t="s">
         <v>980</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BI4" t="s">
         <v>981</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BJ4" t="s">
         <v>982</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BK4" t="s">
         <v>983</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BL4" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="5" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:80" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -8974,6 +9039,9 @@
       <c r="BW5" s="1"/>
       <c r="BX5" s="1"/>
       <c r="BY5" s="1"/>
+      <c r="BZ5" s="1"/>
+      <c r="CA5" s="1"/>
+      <c r="CB5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9103,7 +9171,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>648</v>
@@ -9115,7 +9183,7 @@
         <v>656</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>349</v>
@@ -9320,7 +9388,7 @@
         <v>393</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>210</v>
@@ -9383,10 +9451,10 @@
         <v>445</v>
       </c>
       <c r="AN1" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>1012</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>1013</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>305</v>
@@ -9425,7 +9493,7 @@
         <v>476</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="BC1" s="1" t="s">
         <v>313</v>
@@ -9527,7 +9595,7 @@
         <v>78</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>396</v>
@@ -9728,7 +9796,7 @@
         <v>394</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>962</v>
@@ -9773,7 +9841,7 @@
         <v>430</v>
       </c>
       <c r="AH3" s="8" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="AI3" s="2" t="s">
         <v>437</v>
@@ -9788,7 +9856,7 @@
         <v>194</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="AN3" s="2" t="s">
         <v>304</v>
@@ -9927,7 +9995,7 @@
         <v>395</v>
       </c>
       <c r="S4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="T4" t="s">
         <v>397</v>
@@ -10278,7 +10346,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>648</v>
@@ -10290,7 +10358,7 @@
         <v>656</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>349</v>
@@ -10504,7 +10572,7 @@
         <v>656</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>349</v>

--- a/template/hca_template_contributor.xlsx
+++ b/template/hca_template_contributor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenios/Documents/GitHub/geo_to_hca/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEDDF8F-C76A-394D-9452-2483A6BCD5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F98945-9B47-AE46-86BA-6D3AB69635CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="21360" windowHeight="17600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14920" yWindow="5860" windowWidth="21360" windowHeight="17600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="1060">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -806,18 +806,6 @@
     <t>donor_organism.medical_history.medication</t>
   </si>
   <si>
-    <t>SMOKING HISTORY</t>
-  </si>
-  <si>
-    <t>Estimated number of cigarettes smoked per day.</t>
-  </si>
-  <si>
-    <t>Enter an estimated number of cigarettes smoked per day and for how many years. For example: 20 cigarettes/day for 25 years, stopped 2000</t>
-  </si>
-  <si>
-    <t>donor_organism.medical_history.smoking_history</t>
-  </si>
-  <si>
     <t>NUTRITIONAL STATE</t>
   </si>
   <si>
@@ -3204,6 +3192,42 @@
   </si>
   <si>
     <t>donor_organism.comorbidities.ontology_label</t>
+  </si>
+  <si>
+    <t>SMOKING STATUS</t>
+  </si>
+  <si>
+    <t>SMOKING PACK YEARS</t>
+  </si>
+  <si>
+    <t>YEARS SINCE SMOKING CESSATION</t>
+  </si>
+  <si>
+    <t>Whether the individual is actively, was formerly or never consumed smoking tobacco products like cigarettes, cigars, pipe etc</t>
+  </si>
+  <si>
+    <t>Estimated number of packs (20 cigarettes) smoked per day multiplied by the number of years the individual was smoking.</t>
+  </si>
+  <si>
+    <t>If smoking status is 'former', specify the number of years since smoking cessation</t>
+  </si>
+  <si>
+    <t>Should be one of: active, former, never</t>
+  </si>
+  <si>
+    <t>For example: 3.7; 0; 42</t>
+  </si>
+  <si>
+    <t>For example: 12; 8; 0</t>
+  </si>
+  <si>
+    <t>donor_organism.medical_history.smoking_status</t>
+  </si>
+  <si>
+    <t>donor_organism.medical_history.smoking_pack_years</t>
+  </si>
+  <si>
+    <t>donor_organism.medical_history.years_since_smoking_cessation</t>
   </si>
 </sst>
 </file>
@@ -3711,19 +3735,19 @@
         <v>33</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -3759,19 +3783,19 @@
         <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -3807,19 +3831,19 @@
         <v>35</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -3855,19 +3879,19 @@
         <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="K4" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="L4" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="M4" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="N4" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3940,13 +3964,13 @@
   <sheetData>
     <row r="1" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>124</v>
@@ -3967,52 +3991,52 @@
         <v>144</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>542</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>546</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>171</v>
@@ -4024,97 +4048,97 @@
         <v>178</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>558</v>
-      </c>
       <c r="AE1" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="AH1" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>579</v>
-      </c>
       <c r="AP1" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AV1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="AW1" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="AX1" s="1" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AZ1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="BA1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="BC1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="BB1" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="BD1" s="1" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="BH1" s="1"/>
     </row>
@@ -4147,13 +4171,13 @@
         <v>145</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>497</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>74</v>
@@ -4162,40 +4186,40 @@
         <v>78</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>547</v>
-      </c>
       <c r="Z2" s="2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>74</v>
@@ -4204,7 +4228,7 @@
         <v>78</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>74</v>
@@ -4213,19 +4237,19 @@
         <v>78</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="AG2" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="AH2" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="AI2" s="2" t="s">
-        <v>576</v>
-      </c>
       <c r="AJ2" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AK2" s="2" t="s">
         <v>193</v>
@@ -4237,43 +4261,43 @@
         <v>78</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AO2" s="2" t="s">
         <v>116</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AV2" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="AW2" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="AY2" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="AZ2" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="BA2" s="2" t="s">
         <v>193</v>
@@ -4285,7 +4309,7 @@
         <v>78</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="BE2" s="2" t="s">
         <v>74</v>
@@ -4294,7 +4318,7 @@
         <v>78</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="BH2" s="2"/>
     </row>
@@ -4321,52 +4345,52 @@
         <v>146</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>498</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O3" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>544</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>548</v>
       </c>
       <c r="Z3" s="2" t="s">
         <v>173</v>
@@ -4378,28 +4402,28 @@
         <v>173</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="AE3" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="AF3" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="AF3" s="2" t="s">
-        <v>566</v>
-      </c>
       <c r="AG3" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="AH3" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="AI3" s="2" t="s">
-        <v>577</v>
-      </c>
       <c r="AJ3" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AK3" s="2" t="s">
         <v>194</v>
@@ -4411,35 +4435,35 @@
         <v>194</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AO3" s="2"/>
       <c r="AP3" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AS3" s="2"/>
       <c r="AT3" s="2"/>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AW3" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="AX3" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="AX3" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="AY3" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AZ3" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="BA3" s="2" t="s">
         <v>194</v>
@@ -4451,196 +4475,196 @@
         <v>194</v>
       </c>
       <c r="BD3" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="BF3" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="BG3" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="BH3" s="2"/>
     </row>
     <row r="4" spans="1:60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C4" t="s">
         <v>481</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>482</v>
+      </c>
+      <c r="E4" t="s">
         <v>483</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
+        <v>484</v>
+      </c>
+      <c r="G4" t="s">
         <v>485</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
         <v>486</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>487</v>
       </c>
-      <c r="F4" t="s">
-        <v>488</v>
-      </c>
-      <c r="G4" t="s">
-        <v>489</v>
-      </c>
-      <c r="H4" t="s">
-        <v>490</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>491</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>495</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
+        <v>497</v>
+      </c>
+      <c r="M4" t="s">
         <v>499</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>501</v>
       </c>
-      <c r="M4" t="s">
-        <v>503</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>505</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>509</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>513</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>517</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>521</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>525</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>529</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>533</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>537</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>541</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>545</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
+        <v>547</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>548</v>
+      </c>
+      <c r="AB4" t="s">
         <v>549</v>
       </c>
-      <c r="Z4" t="s">
-        <v>551</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>552</v>
-      </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>553</v>
       </c>
-      <c r="AC4" t="s">
-        <v>557</v>
-      </c>
       <c r="AD4" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="AE4" t="s">
+        <v>559</v>
+      </c>
+      <c r="AF4" t="s">
         <v>563</v>
       </c>
-      <c r="AF4" t="s">
-        <v>567</v>
-      </c>
       <c r="AG4" t="s">
+        <v>566</v>
+      </c>
+      <c r="AH4" t="s">
         <v>570</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>574</v>
       </c>
-      <c r="AI4" t="s">
-        <v>578</v>
-      </c>
       <c r="AJ4" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="AK4" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="AL4" t="s">
+        <v>986</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>987</v>
+      </c>
+      <c r="AN4" t="s">
         <v>990</v>
       </c>
-      <c r="AM4" t="s">
-        <v>991</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>994</v>
-      </c>
       <c r="AO4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AP4" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="AQ4" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="AR4" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="AS4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AT4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AU4" t="s">
+        <v>314</v>
+      </c>
+      <c r="AV4" t="s">
         <v>318</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AW4" t="s">
         <v>322</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AX4" t="s">
         <v>326</v>
       </c>
-      <c r="AX4" t="s">
-        <v>330</v>
-      </c>
       <c r="AY4" t="s">
+        <v>329</v>
+      </c>
+      <c r="AZ4" t="s">
         <v>333</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BA4" t="s">
+        <v>335</v>
+      </c>
+      <c r="BB4" t="s">
         <v>337</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BC4" t="s">
         <v>339</v>
       </c>
-      <c r="BB4" t="s">
-        <v>341</v>
-      </c>
-      <c r="BC4" t="s">
+      <c r="BD4" t="s">
         <v>343</v>
       </c>
-      <c r="BD4" t="s">
-        <v>347</v>
-      </c>
       <c r="BE4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="BF4" t="s">
+        <v>348</v>
+      </c>
+      <c r="BG4" t="s">
         <v>352</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4771,216 +4795,216 @@
   <sheetData>
     <row r="1" spans="1:55" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>91</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>654</v>
-      </c>
       <c r="G1" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>1029</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>1030</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>1031</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>952</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>747</v>
-      </c>
       <c r="Q1" s="3" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>757</v>
-      </c>
       <c r="T1" s="3" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="U1" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="AG1" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="AM1" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="AP1" s="3" t="s">
-        <v>811</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>813</v>
-      </c>
       <c r="AR1" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="AT1" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="AU1" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>824</v>
-      </c>
       <c r="AW1" s="3" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="AX1" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="BA1" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>838</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="2" spans="1:55" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>655</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>740</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>744</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>74</v>
@@ -4989,10 +5013,10 @@
         <v>78</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>74</v>
@@ -5001,85 +5025,85 @@
         <v>78</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="AA2" s="2" t="s">
-        <v>472</v>
-      </c>
       <c r="AB2" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="AG2" s="2" t="s">
-        <v>472</v>
-      </c>
       <c r="AH2" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="AI2" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="AJ2" s="2" t="s">
-        <v>798</v>
-      </c>
       <c r="AK2" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="AL2" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="AP2" s="2" t="s">
-        <v>472</v>
-      </c>
       <c r="AQ2" s="2" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="AR2" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="AS2" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="AU2" s="2" t="s">
-        <v>740</v>
-      </c>
       <c r="AV2" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AW2" s="2" t="s">
         <v>74</v>
@@ -5088,7 +5112,7 @@
         <v>78</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AZ2" s="2" t="s">
         <v>74</v>
@@ -5097,340 +5121,340 @@
         <v>78</v>
       </c>
       <c r="BB2" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="BC2" s="2" t="s">
         <v>839</v>
-      </c>
-      <c r="BC2" s="2" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="3" spans="1:55" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>656</v>
-      </c>
       <c r="G3" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>953</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="P3" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="AT3" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>954</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="AR3" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="AS3" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="AU3" s="2" t="s">
-        <v>741</v>
-      </c>
       <c r="AV3" s="2" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="AW3" s="2" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="AY3" s="2" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="AZ3" s="2" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="BA3" s="2" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="BB3" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="BC3" s="2" t="s">
         <v>840</v>
-      </c>
-      <c r="BC3" s="2" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="4" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B4" t="s">
+        <v>717</v>
+      </c>
+      <c r="C4" t="s">
+        <v>719</v>
+      </c>
+      <c r="D4" t="s">
+        <v>720</v>
+      </c>
+      <c r="E4" t="s">
         <v>721</v>
       </c>
-      <c r="C4" t="s">
-        <v>723</v>
-      </c>
-      <c r="D4" t="s">
-        <v>724</v>
-      </c>
-      <c r="E4" t="s">
-        <v>725</v>
-      </c>
       <c r="F4" t="s">
+        <v>722</v>
+      </c>
+      <c r="G4" t="s">
         <v>726</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>730</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>734</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>738</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
+        <v>951</v>
+      </c>
+      <c r="L4" t="s">
+        <v>952</v>
+      </c>
+      <c r="M4" t="s">
+        <v>953</v>
+      </c>
+      <c r="N4" t="s">
+        <v>954</v>
+      </c>
+      <c r="O4" t="s">
         <v>742</v>
       </c>
-      <c r="K4" t="s">
-        <v>955</v>
-      </c>
-      <c r="L4" t="s">
-        <v>956</v>
-      </c>
-      <c r="M4" t="s">
-        <v>957</v>
-      </c>
-      <c r="N4" t="s">
-        <v>958</v>
-      </c>
-      <c r="O4" t="s">
-        <v>746</v>
-      </c>
       <c r="P4" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="Q4" t="s">
+        <v>748</v>
+      </c>
+      <c r="R4" t="s">
         <v>752</v>
       </c>
-      <c r="R4" t="s">
-        <v>756</v>
-      </c>
       <c r="S4" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="T4" t="s">
+        <v>758</v>
+      </c>
+      <c r="U4" t="s">
+        <v>760</v>
+      </c>
+      <c r="V4" t="s">
         <v>762</v>
       </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
         <v>764</v>
       </c>
-      <c r="V4" t="s">
+      <c r="X4" t="s">
         <v>766</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Y4" t="s">
         <v>768</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Z4" t="s">
         <v>770</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AA4" t="s">
         <v>772</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AB4" t="s">
         <v>774</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AC4" t="s">
         <v>776</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
         <v>778</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AE4" t="s">
         <v>780</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AF4" t="s">
         <v>782</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>784</v>
       </c>
-      <c r="AF4" t="s">
-        <v>786</v>
-      </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>788</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>792</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>796</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AK4" t="s">
+        <v>798</v>
+      </c>
+      <c r="AL4" t="s">
         <v>800</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AM4" t="s">
         <v>802</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AN4" t="s">
         <v>804</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AO4" t="s">
         <v>806</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AP4" t="s">
         <v>808</v>
       </c>
-      <c r="AO4" t="s">
-        <v>810</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>812</v>
-      </c>
       <c r="AQ4" t="s">
+        <v>811</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>813</v>
+      </c>
+      <c r="AS4" t="s">
         <v>815</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AT4" t="s">
         <v>817</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AU4" t="s">
         <v>819</v>
       </c>
-      <c r="AT4" t="s">
-        <v>821</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>823</v>
-      </c>
       <c r="AV4" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="AW4" t="s">
+        <v>825</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>827</v>
+      </c>
+      <c r="AY4" t="s">
         <v>829</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AZ4" t="s">
         <v>831</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="BA4" t="s">
         <v>833</v>
       </c>
-      <c r="AZ4" t="s">
-        <v>835</v>
-      </c>
-      <c r="BA4" t="s">
+      <c r="BB4" t="s">
         <v>837</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BC4" t="s">
         <v>841</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="5" spans="1:55" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5527,81 +5551,81 @@
   <sheetData>
     <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>654</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>857</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>870</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>886</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>655</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>74</v>
@@ -5610,13 +5634,13 @@
         <v>78</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>867</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>74</v>
@@ -5625,62 +5649,62 @@
         <v>78</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>887</v>
-      </c>
       <c r="R2" s="2" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>656</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>868</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="O3" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>880</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>884</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>226</v>
@@ -5691,58 +5715,58 @@
     </row>
     <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B4" t="s">
+        <v>843</v>
+      </c>
+      <c r="C4" t="s">
+        <v>845</v>
+      </c>
+      <c r="D4" t="s">
+        <v>846</v>
+      </c>
+      <c r="E4" t="s">
         <v>847</v>
       </c>
-      <c r="C4" t="s">
-        <v>849</v>
-      </c>
-      <c r="D4" t="s">
-        <v>850</v>
-      </c>
-      <c r="E4" t="s">
-        <v>851</v>
-      </c>
       <c r="F4" t="s">
+        <v>848</v>
+      </c>
+      <c r="G4" t="s">
         <v>852</v>
       </c>
-      <c r="G4" t="s">
-        <v>856</v>
-      </c>
       <c r="H4" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="I4" t="s">
+        <v>857</v>
+      </c>
+      <c r="J4" t="s">
         <v>861</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>865</v>
       </c>
-      <c r="K4" t="s">
-        <v>869</v>
-      </c>
       <c r="L4" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="M4" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="N4" t="s">
+        <v>873</v>
+      </c>
+      <c r="O4" t="s">
         <v>877</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>881</v>
       </c>
-      <c r="P4" t="s">
-        <v>885</v>
-      </c>
       <c r="Q4" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="R4" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5805,111 +5829,111 @@
   <sheetData>
     <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>597</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>1039</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>927</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="AB1" s="1" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>590</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>594</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>74</v>
@@ -5918,61 +5942,61 @@
         <v>78</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>629</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>1040</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>633</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>116</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="T2" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="X2" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>193</v>
@@ -5984,7 +6008,7 @@
         <v>78</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>74</v>
@@ -5993,76 +6017,76 @@
         <v>78</v>
       </c>
       <c r="AE2" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>595</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>630</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>1041</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>634</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="W3" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>194</v>
@@ -6074,114 +6098,114 @@
         <v>194</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AE3" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="AF3" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>606</v>
+      </c>
+      <c r="B4" t="s">
+        <v>607</v>
+      </c>
+      <c r="C4" t="s">
+        <v>608</v>
+      </c>
+      <c r="D4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E4" t="s">
         <v>610</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
         <v>611</v>
       </c>
-      <c r="C4" t="s">
-        <v>612</v>
-      </c>
-      <c r="D4" t="s">
-        <v>613</v>
-      </c>
-      <c r="E4" t="s">
-        <v>614</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>960</v>
+      </c>
+      <c r="H4" t="s">
         <v>615</v>
       </c>
-      <c r="G4" t="s">
-        <v>964</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>619</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>623</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>627</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>631</v>
       </c>
-      <c r="M4" t="s">
-        <v>635</v>
-      </c>
       <c r="N4" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="O4" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="P4" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="Q4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="R4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="S4" t="s">
+        <v>314</v>
+      </c>
+      <c r="T4" t="s">
         <v>318</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>322</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>326</v>
       </c>
-      <c r="V4" t="s">
-        <v>330</v>
-      </c>
       <c r="W4" t="s">
+        <v>329</v>
+      </c>
+      <c r="X4" t="s">
         <v>333</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z4" t="s">
         <v>337</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AA4" t="s">
         <v>339</v>
       </c>
-      <c r="Z4" t="s">
-        <v>341</v>
-      </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>343</v>
       </c>
-      <c r="AB4" t="s">
-        <v>347</v>
-      </c>
       <c r="AC4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AD4" t="s">
+        <v>348</v>
+      </c>
+      <c r="AE4" t="s">
         <v>352</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>356</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6259,49 +6283,49 @@
   <sheetData>
     <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>91</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>903</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>904</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>905</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>995</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>996</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>1003</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>1021</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>906</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>907</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>908</v>
       </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -6310,41 +6334,41 @@
     </row>
     <row r="2" spans="1:19" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>647</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>651</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -6353,37 +6377,37 @@
     </row>
     <row r="3" spans="1:19" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>648</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>652</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -6392,49 +6416,49 @@
     </row>
     <row r="4" spans="1:19" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>909</v>
+      </c>
+      <c r="B4" t="s">
+        <v>910</v>
+      </c>
+      <c r="C4" t="s">
+        <v>911</v>
+      </c>
+      <c r="D4" t="s">
+        <v>912</v>
+      </c>
+      <c r="E4" t="s">
         <v>913</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
         <v>914</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>915</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
         <v>916</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" s="11" t="s">
+        <v>997</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>998</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="M4" t="s">
         <v>917</v>
       </c>
-      <c r="F4" t="s">
+      <c r="N4" t="s">
+        <v>940</v>
+      </c>
+      <c r="O4" t="s">
         <v>918</v>
-      </c>
-      <c r="G4" t="s">
-        <v>919</v>
-      </c>
-      <c r="H4" t="s">
-        <v>920</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>1001</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>1002</v>
-      </c>
-      <c r="K4" t="s">
-        <v>1006</v>
-      </c>
-      <c r="L4" t="s">
-        <v>1024</v>
-      </c>
-      <c r="M4" t="s">
-        <v>921</v>
-      </c>
-      <c r="N4" t="s">
-        <v>944</v>
-      </c>
-      <c r="O4" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6508,103 +6532,103 @@
   <sheetData>
     <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>597</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>975</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>924</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>925</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>965</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>979</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="AB1" s="3" t="s">
         <v>926</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>1026</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>927</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>928</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>929</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>930</v>
-      </c>
       <c r="AC1" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AD1" s="3"/>
     </row>
     <row r="2" spans="1:30" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>590</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>74</v>
@@ -6613,55 +6637,55 @@
         <v>78</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>116</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="V2" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>193</v>
@@ -6673,7 +6697,7 @@
         <v>78</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>74</v>
@@ -6682,62 +6706,62 @@
         <v>78</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AD2" s="2"/>
     </row>
     <row r="3" spans="1:30" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>587</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>591</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="U3" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2" t="s">
@@ -6748,103 +6772,103 @@
       </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AD3" s="2"/>
     </row>
     <row r="4" spans="1:30" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>928</v>
+      </c>
+      <c r="B4" t="s">
+        <v>929</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="D4" t="s">
+        <v>931</v>
+      </c>
+      <c r="E4" t="s">
         <v>932</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
         <v>933</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="G4" t="s">
+        <v>939</v>
+      </c>
+      <c r="H4" t="s">
         <v>934</v>
       </c>
-      <c r="D4" t="s">
-        <v>935</v>
-      </c>
-      <c r="E4" t="s">
-        <v>936</v>
-      </c>
-      <c r="F4" t="s">
-        <v>937</v>
-      </c>
-      <c r="G4" t="s">
-        <v>943</v>
-      </c>
-      <c r="H4" t="s">
-        <v>938</v>
-      </c>
       <c r="I4" s="9" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="K4" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="N4" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="O4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="Q4" t="s">
+        <v>314</v>
+      </c>
+      <c r="R4" t="s">
         <v>318</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>322</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>326</v>
       </c>
-      <c r="T4" t="s">
-        <v>330</v>
-      </c>
       <c r="U4" t="s">
+        <v>329</v>
+      </c>
+      <c r="V4" t="s">
         <v>333</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
+        <v>335</v>
+      </c>
+      <c r="X4" t="s">
         <v>337</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Y4" t="s">
         <v>339</v>
       </c>
-      <c r="X4" t="s">
-        <v>341</v>
-      </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>343</v>
       </c>
-      <c r="Z4" t="s">
-        <v>347</v>
-      </c>
       <c r="AA4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AB4" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC4" t="s">
         <v>352</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7416,84 +7440,84 @@
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>597</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>606</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="O1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>590</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>594</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>74</v>
@@ -7502,34 +7526,34 @@
         <v>78</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>607</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>193</v>
@@ -7541,7 +7565,7 @@
         <v>78</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>74</v>
@@ -7550,51 +7574,51 @@
         <v>78</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>595</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>604</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>608</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="N3" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>194</v>
@@ -7606,90 +7630,90 @@
         <v>194</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="V3" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>584</v>
+      </c>
+      <c r="B4" t="s">
         <v>588</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>592</v>
       </c>
-      <c r="C4" t="s">
-        <v>596</v>
-      </c>
       <c r="D4" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E4" t="s">
+        <v>597</v>
+      </c>
+      <c r="F4" t="s">
         <v>601</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>605</v>
       </c>
-      <c r="G4" t="s">
-        <v>609</v>
-      </c>
       <c r="H4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="I4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J4" t="s">
+        <v>314</v>
+      </c>
+      <c r="K4" t="s">
         <v>318</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>322</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>326</v>
       </c>
-      <c r="M4" t="s">
-        <v>330</v>
-      </c>
       <c r="N4" t="s">
+        <v>329</v>
+      </c>
+      <c r="O4" t="s">
         <v>333</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q4" t="s">
         <v>337</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>339</v>
       </c>
-      <c r="Q4" t="s">
-        <v>341</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>343</v>
       </c>
-      <c r="S4" t="s">
-        <v>347</v>
-      </c>
       <c r="T4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="U4" t="s">
+        <v>348</v>
+      </c>
+      <c r="V4" t="s">
         <v>352</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>356</v>
-      </c>
-      <c r="W4" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7941,7 +7965,7 @@
         <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.2">
@@ -7961,12 +7985,12 @@
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>89</v>
@@ -7981,7 +8005,7 @@
         <v>101</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -8001,7 +8025,7 @@
         <v>102</v>
       </c>
       <c r="F4" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8089,14 +8113,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:CB5"/>
+  <dimension ref="A1:CD5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AP2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AR1" sqref="AR1:AT1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8124,24 +8148,24 @@
     <col min="37" max="37" width="28.6640625" customWidth="1"/>
     <col min="38" max="40" width="25.6640625" customWidth="1"/>
     <col min="41" max="41" width="31.6640625" customWidth="1"/>
-    <col min="42" max="49" width="25.6640625" customWidth="1"/>
-    <col min="50" max="51" width="0" hidden="1" customWidth="1"/>
-    <col min="52" max="53" width="25.6640625" customWidth="1"/>
-    <col min="54" max="55" width="0" hidden="1" customWidth="1"/>
-    <col min="56" max="57" width="25.6640625" customWidth="1"/>
-    <col min="58" max="59" width="0" hidden="1" customWidth="1"/>
-    <col min="60" max="60" width="27.6640625" customWidth="1"/>
-    <col min="61" max="61" width="26.6640625" customWidth="1"/>
-    <col min="62" max="63" width="8.83203125" hidden="1" customWidth="1"/>
-    <col min="64" max="73" width="25.6640625" customWidth="1"/>
-    <col min="74" max="75" width="0" hidden="1" customWidth="1"/>
-    <col min="76" max="76" width="25.6640625" customWidth="1"/>
-    <col min="77" max="78" width="0" hidden="1" customWidth="1"/>
-    <col min="79" max="79" width="25.6640625" customWidth="1"/>
-    <col min="80" max="80" width="37.6640625" customWidth="1"/>
+    <col min="42" max="51" width="25.6640625" customWidth="1"/>
+    <col min="52" max="53" width="0" hidden="1" customWidth="1"/>
+    <col min="54" max="55" width="25.6640625" customWidth="1"/>
+    <col min="56" max="57" width="0" hidden="1" customWidth="1"/>
+    <col min="58" max="59" width="25.6640625" customWidth="1"/>
+    <col min="60" max="61" width="0" hidden="1" customWidth="1"/>
+    <col min="62" max="62" width="27.6640625" customWidth="1"/>
+    <col min="63" max="63" width="26.6640625" customWidth="1"/>
+    <col min="64" max="65" width="8.83203125" hidden="1" customWidth="1"/>
+    <col min="66" max="75" width="25.6640625" customWidth="1"/>
+    <col min="76" max="77" width="0" hidden="1" customWidth="1"/>
+    <col min="78" max="78" width="25.6640625" customWidth="1"/>
+    <col min="79" max="80" width="0" hidden="1" customWidth="1"/>
+    <col min="81" max="81" width="25.6640625" customWidth="1"/>
+    <col min="82" max="82" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:82" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>115</v>
       </c>
@@ -8236,16 +8260,16 @@
         <v>215</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>220</v>
@@ -8272,70 +8296,74 @@
         <v>248</v>
       </c>
       <c r="AR1" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="BA1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="AY1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="BB1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="BG1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="BE1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="BL1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="BH1" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="BM1" s="1"/>
-      <c r="BN1" s="1"/>
+      <c r="BM1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>303</v>
+      </c>
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
       <c r="BQ1" s="1"/>
@@ -8350,8 +8378,10 @@
       <c r="BZ1" s="1"/>
       <c r="CA1" s="1"/>
       <c r="CB1" s="1"/>
-    </row>
-    <row r="2" spans="1:80" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CC1" s="1"/>
+      <c r="CD1" s="1"/>
+    </row>
+    <row r="2" spans="1:82" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>116</v>
       </c>
@@ -8482,70 +8512,74 @@
         <v>249</v>
       </c>
       <c r="AR2" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AU2" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="AV2" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="BB2" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="BC2" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="BA2" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BE2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BD2" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="BE2" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="BF2" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="BH2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BI2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BH2" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="BI2" s="2" t="s">
+      <c r="BJ2" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="BK2" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="BJ2" s="2" t="s">
+      <c r="BL2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BK2" s="2" t="s">
+      <c r="BM2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BL2" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="BM2" s="2"/>
-      <c r="BN2" s="2"/>
+      <c r="BN2" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="BO2" s="2"/>
       <c r="BP2" s="2"/>
       <c r="BQ2" s="2"/>
@@ -8560,8 +8594,10 @@
       <c r="BZ2" s="2"/>
       <c r="CA2" s="2"/>
       <c r="CB2" s="2"/>
-    </row>
-    <row r="3" spans="1:80" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CC2" s="2"/>
+      <c r="CD2" s="2"/>
+    </row>
+    <row r="3" spans="1:82" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -8641,22 +8677,22 @@
         <v>203</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="AI3" s="2" t="s">
         <v>218</v>
@@ -8686,70 +8722,74 @@
         <v>250</v>
       </c>
       <c r="AR3" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AU3" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AV3" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AW3" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AX3" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="AV3" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="AW3" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="AX3" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="AY3" s="2" t="s">
         <v>194</v>
       </c>
       <c r="AZ3" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="BA3" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="BB3" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="BC3" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="BA3" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="BB3" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="BC3" s="2" t="s">
-        <v>284</v>
-      </c>
       <c r="BD3" s="2" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="BF3" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="BG3" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="BH3" s="2" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="BI3" s="2" t="s">
-        <v>194</v>
+        <v>292</v>
       </c>
       <c r="BJ3" s="2" t="s">
-        <v>197</v>
+        <v>300</v>
       </c>
       <c r="BK3" s="2" t="s">
         <v>194</v>
       </c>
       <c r="BL3" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="BM3" s="2"/>
-      <c r="BN3" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="BM3" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="BN3" s="2" t="s">
+        <v>305</v>
+      </c>
       <c r="BO3" s="2"/>
       <c r="BP3" s="2"/>
       <c r="BQ3" s="2"/>
@@ -8764,8 +8804,10 @@
       <c r="BZ3" s="2"/>
       <c r="CA3" s="2"/>
       <c r="CB3" s="2"/>
-    </row>
-    <row r="4" spans="1:80" hidden="1" x14ac:dyDescent="0.2">
+      <c r="CC3" s="2"/>
+      <c r="CD3" s="2"/>
+    </row>
+    <row r="4" spans="1:82" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -8860,13 +8902,13 @@
         <v>216</v>
       </c>
       <c r="AF4" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="AG4" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="AH4" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="AI4" t="s">
         <v>219</v>
@@ -8896,70 +8938,76 @@
         <v>251</v>
       </c>
       <c r="AR4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AU4" t="s">
         <v>255</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AV4" t="s">
         <v>259</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AW4" t="s">
         <v>263</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AX4" t="s">
         <v>267</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AY4" t="s">
+        <v>269</v>
+      </c>
+      <c r="AZ4" t="s">
         <v>271</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="BA4" t="s">
         <v>273</v>
       </c>
-      <c r="AX4" t="s">
-        <v>275</v>
-      </c>
-      <c r="AY4" t="s">
+      <c r="BB4" t="s">
         <v>277</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BC4" t="s">
         <v>281</v>
       </c>
-      <c r="BA4" t="s">
-        <v>285</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>288</v>
-      </c>
-      <c r="BC4" t="s">
+      <c r="BD4" t="s">
+        <v>284</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>286</v>
+      </c>
+      <c r="BF4" t="s">
         <v>290</v>
       </c>
-      <c r="BD4" t="s">
-        <v>294</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>297</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>300</v>
-      </c>
       <c r="BG4" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="BH4" t="s">
-        <v>980</v>
+        <v>296</v>
       </c>
       <c r="BI4" t="s">
-        <v>981</v>
+        <v>298</v>
       </c>
       <c r="BJ4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="BK4" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="BL4" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="5" spans="1:80" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>978</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>979</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:82" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -9042,6 +9090,8 @@
       <c r="BZ5" s="1"/>
       <c r="CA5" s="1"/>
       <c r="CB5" s="1"/>
+      <c r="CC5" s="1"/>
+      <c r="CD5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9073,72 +9123,72 @@
   <sheetData>
     <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>664</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>655</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>74</v>
@@ -9147,114 +9197,114 @@
         <v>78</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>656</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>469</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B4" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C4" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D4" t="s">
+        <v>645</v>
+      </c>
+      <c r="E4" t="s">
         <v>649</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>653</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>655</v>
+      </c>
+      <c r="H4" t="s">
         <v>657</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>659</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>661</v>
       </c>
-      <c r="I4" t="s">
-        <v>663</v>
-      </c>
-      <c r="J4" t="s">
-        <v>665</v>
-      </c>
       <c r="K4" t="s">
+        <v>662</v>
+      </c>
+      <c r="L4" t="s">
+        <v>664</v>
+      </c>
+      <c r="M4" t="s">
         <v>666</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>668</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>670</v>
-      </c>
-      <c r="N4" t="s">
-        <v>672</v>
-      </c>
-      <c r="O4" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9334,13 +9384,13 @@
   <sheetData>
     <row r="1" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>124</v>
@@ -9370,25 +9420,25 @@
         <v>178</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>381</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>210</v>
@@ -9400,142 +9450,142 @@
         <v>215</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="AI1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="AL1" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>445</v>
-      </c>
       <c r="AN1" s="1" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AT1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="AZ1" s="1" t="s">
-        <v>475</v>
-      </c>
       <c r="BA1" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="BE1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="BF1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="BF1" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="BG1" s="1" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="BI1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="BL1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="BK1" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="BM1" s="1" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="BQ1" s="1"/>
     </row>
@@ -9568,7 +9618,7 @@
         <v>145</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>74</v>
@@ -9577,7 +9627,7 @@
         <v>78</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>74</v>
@@ -9586,7 +9636,7 @@
         <v>78</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>74</v>
@@ -9595,10 +9645,10 @@
         <v>78</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>74</v>
@@ -9607,7 +9657,7 @@
         <v>78</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>74</v>
@@ -9616,34 +9666,34 @@
         <v>78</v>
       </c>
       <c r="Z2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="AA2" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="AH2" s="2" t="s">
-        <v>433</v>
-      </c>
       <c r="AI2" s="2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="AJ2" s="2" t="s">
         <v>193</v>
@@ -9655,10 +9705,10 @@
         <v>78</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AO2" s="2" t="s">
         <v>193</v>
@@ -9670,58 +9720,58 @@
         <v>78</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AT2" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="AU2" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="AZ2" s="2" t="s">
         <v>116</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="BE2" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="BF2" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="BF2" s="2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BH2" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="BH2" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="BI2" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="BJ2" s="2" t="s">
         <v>193</v>
@@ -9733,7 +9783,7 @@
         <v>78</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="BN2" s="2" t="s">
         <v>74</v>
@@ -9742,7 +9792,7 @@
         <v>78</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="BQ2" s="2"/>
     </row>
@@ -9778,73 +9828,73 @@
         <v>173</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="Z3" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA3" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="AA3" s="15" t="s">
+      <c r="AB3" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="AG3" s="2" t="s">
-        <v>430</v>
-      </c>
       <c r="AH3" s="8" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AJ3" s="2" t="s">
         <v>194</v>
@@ -9856,10 +9906,10 @@
         <v>194</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AO3" s="2" t="s">
         <v>194</v>
@@ -9871,50 +9921,50 @@
         <v>194</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AS3" s="2" t="s">
         <v>234</v>
       </c>
       <c r="AT3" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="AU3" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AV3" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="AV3" s="2" t="s">
+      <c r="AW3" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="AX3" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="AX3" s="2" t="s">
+      <c r="AY3" s="2" t="s">
         <v>469</v>
-      </c>
-      <c r="AY3" s="2" t="s">
-        <v>473</v>
       </c>
       <c r="AZ3" s="2"/>
       <c r="BA3" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="BB3" s="2"/>
       <c r="BC3" s="2"/>
       <c r="BD3" s="2"/>
       <c r="BE3" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="BF3" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="BF3" s="2" t="s">
+      <c r="BG3" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="BG3" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="BH3" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="BI3" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="BJ3" s="2" t="s">
         <v>194</v>
@@ -9926,223 +9976,223 @@
         <v>194</v>
       </c>
       <c r="BM3" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="BN3" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="BO3" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="BP3" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="BQ3" s="2"/>
     </row>
     <row r="4" spans="1:69" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C4" t="s">
         <v>362</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E4" t="s">
         <v>364</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
+        <v>365</v>
+      </c>
+      <c r="G4" t="s">
         <v>366</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
         <v>367</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>368</v>
       </c>
-      <c r="F4" t="s">
-        <v>369</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>370</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>371</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>372</v>
       </c>
-      <c r="J4" t="s">
-        <v>374</v>
-      </c>
-      <c r="K4" t="s">
-        <v>375</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>376</v>
       </c>
-      <c r="M4" t="s">
-        <v>380</v>
-      </c>
       <c r="N4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="O4" t="s">
+        <v>381</v>
+      </c>
+      <c r="P4" t="s">
         <v>385</v>
       </c>
-      <c r="P4" t="s">
-        <v>389</v>
-      </c>
       <c r="Q4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="R4" t="s">
+        <v>391</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="T4" t="s">
+        <v>393</v>
+      </c>
+      <c r="U4" t="s">
+        <v>394</v>
+      </c>
+      <c r="V4" t="s">
         <v>395</v>
       </c>
-      <c r="S4" t="s">
-        <v>1020</v>
-      </c>
-      <c r="T4" t="s">
-        <v>397</v>
-      </c>
-      <c r="U4" t="s">
-        <v>398</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
+        <v>970</v>
+      </c>
+      <c r="X4" t="s">
+        <v>971</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>972</v>
+      </c>
+      <c r="Z4" t="s">
         <v>399</v>
       </c>
-      <c r="W4" t="s">
-        <v>974</v>
-      </c>
-      <c r="X4" t="s">
-        <v>975</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>976</v>
-      </c>
-      <c r="Z4" t="s">
+      <c r="AA4" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="AA4" s="16" t="s">
+      <c r="AB4" t="s">
         <v>407</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>411</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>415</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>419</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>423</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>427</v>
       </c>
-      <c r="AG4" t="s">
-        <v>431</v>
-      </c>
       <c r="AH4" t="s">
+        <v>430</v>
+      </c>
+      <c r="AI4" t="s">
         <v>434</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
+        <v>436</v>
+      </c>
+      <c r="AK4" t="s">
         <v>438</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AL4" t="s">
         <v>440</v>
       </c>
-      <c r="AK4" t="s">
-        <v>442</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>444</v>
-      </c>
       <c r="AM4" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="AN4" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="AO4" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="AP4" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="AQ4" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="AR4" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="AS4" t="s">
+        <v>446</v>
+      </c>
+      <c r="AT4" t="s">
         <v>450</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AU4" t="s">
         <v>454</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AV4" t="s">
         <v>458</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AW4" t="s">
         <v>462</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AX4" t="s">
         <v>466</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AY4" t="s">
         <v>470</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>474</v>
       </c>
       <c r="AZ4" t="s">
         <v>117</v>
       </c>
       <c r="BA4" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="BB4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="BC4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="BD4" t="s">
+        <v>314</v>
+      </c>
+      <c r="BE4" t="s">
         <v>318</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BF4" t="s">
         <v>322</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BG4" t="s">
         <v>326</v>
       </c>
-      <c r="BG4" t="s">
-        <v>330</v>
-      </c>
       <c r="BH4" t="s">
+        <v>329</v>
+      </c>
+      <c r="BI4" t="s">
         <v>333</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BJ4" t="s">
+        <v>335</v>
+      </c>
+      <c r="BK4" t="s">
         <v>337</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BL4" t="s">
         <v>339</v>
       </c>
-      <c r="BK4" t="s">
-        <v>341</v>
-      </c>
-      <c r="BL4" t="s">
+      <c r="BM4" t="s">
         <v>343</v>
       </c>
-      <c r="BM4" t="s">
-        <v>347</v>
-      </c>
       <c r="BN4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="BO4" t="s">
+        <v>348</v>
+      </c>
+      <c r="BP4" t="s">
         <v>352</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10248,72 +10298,72 @@
   <sheetData>
     <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>654</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>686</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>655</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>74</v>
@@ -10322,114 +10372,114 @@
         <v>78</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>656</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>469</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C4" t="s">
+        <v>674</v>
+      </c>
+      <c r="D4" t="s">
+        <v>675</v>
+      </c>
+      <c r="E4" t="s">
         <v>676</v>
       </c>
-      <c r="C4" t="s">
-        <v>678</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
+        <v>677</v>
+      </c>
+      <c r="G4" t="s">
         <v>679</v>
       </c>
-      <c r="E4" t="s">
-        <v>680</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>681</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>683</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
+        <v>684</v>
+      </c>
+      <c r="K4" t="s">
         <v>685</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
+        <v>686</v>
+      </c>
+      <c r="M4" t="s">
         <v>687</v>
       </c>
-      <c r="J4" t="s">
+      <c r="N4" t="s">
         <v>688</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>689</v>
-      </c>
-      <c r="L4" t="s">
-        <v>690</v>
-      </c>
-      <c r="M4" t="s">
-        <v>691</v>
-      </c>
-      <c r="N4" t="s">
-        <v>692</v>
-      </c>
-      <c r="O4" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10482,63 +10532,63 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>654</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>711</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>655</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>74</v>
@@ -10547,85 +10597,85 @@
         <v>78</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>712</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>656</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>713</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B4" t="s">
+        <v>691</v>
+      </c>
+      <c r="C4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D4" t="s">
+        <v>694</v>
+      </c>
+      <c r="E4" t="s">
         <v>695</v>
       </c>
-      <c r="C4" t="s">
-        <v>697</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
+        <v>696</v>
+      </c>
+      <c r="G4" t="s">
         <v>698</v>
       </c>
-      <c r="E4" t="s">
-        <v>699</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>700</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>702</v>
       </c>
-      <c r="H4" t="s">
-        <v>704</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>706</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>710</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>714</v>
-      </c>
-      <c r="L4" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">

--- a/template/hca_template_contributor.xlsx
+++ b/template/hca_template_contributor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenios/Documents/GitHub/geo_to_hca/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F98945-9B47-AE46-86BA-6D3AB69635CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AD1B14-F15E-624D-8631-8C7EC766EB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14920" yWindow="5860" windowWidth="21360" windowHeight="17600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4860" yWindow="760" windowWidth="21360" windowHeight="17600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="1060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="1066">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -794,18 +794,6 @@
     <t>donor_organism.medical_history.alcohol_history</t>
   </si>
   <si>
-    <t>MEDICATIONS</t>
-  </si>
-  <si>
-    <t>Medications the individual was taking at time of biomaterial collection.</t>
-  </si>
-  <si>
-    <t>Enter the medication and dosage. Separate multiple medications with commas. For example: Naproxen 500mg/day; Citalopram 20mg/day</t>
-  </si>
-  <si>
-    <t>donor_organism.medical_history.medication</t>
-  </si>
-  <si>
     <t>NUTRITIONAL STATE</t>
   </si>
   <si>
@@ -3228,6 +3216,36 @@
   </si>
   <si>
     <t>donor_organism.medical_history.years_since_smoking_cessation</t>
+  </si>
+  <si>
+    <t>MEDICATION(S)</t>
+  </si>
+  <si>
+    <t>MEDICATION(S) ONTOLOGY</t>
+  </si>
+  <si>
+    <t>MEDICATION(S) ONTOLOGY LABEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medication(s) the individual was taking at time of biomaterial collection. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The preferred label for the ontology term referred to in the ontology field. This may differ from the user-supplied value in the text field. </t>
+  </si>
+  <si>
+    <t>For example: bisoprolol; paracetamol; loratadine</t>
+  </si>
+  <si>
+    <t>For example: CHEBI:3127; CHEBI:46195; CHEBI:6538</t>
+  </si>
+  <si>
+    <t>donor_organism.medical_history.medication.text</t>
+  </si>
+  <si>
+    <t>donor_organism.medical_history.medication.ontology</t>
+  </si>
+  <si>
+    <t>donor_organism.medical_history.medication.ontology_label</t>
   </si>
 </sst>
 </file>
@@ -3735,19 +3753,19 @@
         <v>33</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -3783,19 +3801,19 @@
         <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -3831,19 +3849,19 @@
         <v>35</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -3879,19 +3897,19 @@
         <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="K4" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="L4" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="M4" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="N4" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3964,13 +3982,13 @@
   <sheetData>
     <row r="1" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>124</v>
@@ -3991,52 +4009,52 @@
         <v>144</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>542</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>171</v>
@@ -4048,97 +4066,97 @@
         <v>178</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>554</v>
-      </c>
       <c r="AE1" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="AH1" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>575</v>
-      </c>
       <c r="AP1" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AV1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AW1" s="1" t="s">
-        <v>319</v>
-      </c>
       <c r="AX1" s="1" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AZ1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="BA1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="BC1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="BB1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="BD1" s="1" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="BH1" s="1"/>
     </row>
@@ -4171,13 +4189,13 @@
         <v>145</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>493</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>74</v>
@@ -4186,40 +4204,40 @@
         <v>78</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>543</v>
-      </c>
       <c r="Z2" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>74</v>
@@ -4228,7 +4246,7 @@
         <v>78</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>74</v>
@@ -4237,19 +4255,19 @@
         <v>78</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="AG2" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="AH2" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="AI2" s="2" t="s">
-        <v>572</v>
-      </c>
       <c r="AJ2" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AK2" s="2" t="s">
         <v>193</v>
@@ -4261,43 +4279,43 @@
         <v>78</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AO2" s="2" t="s">
         <v>116</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AV2" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="AW2" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="AY2" s="2" t="s">
-        <v>328</v>
-      </c>
       <c r="AZ2" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="BA2" s="2" t="s">
         <v>193</v>
@@ -4309,7 +4327,7 @@
         <v>78</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="BE2" s="2" t="s">
         <v>74</v>
@@ -4318,7 +4336,7 @@
         <v>78</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="BH2" s="2"/>
     </row>
@@ -4345,52 +4363,52 @@
         <v>146</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>494</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="O3" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>540</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>544</v>
       </c>
       <c r="Z3" s="2" t="s">
         <v>173</v>
@@ -4402,28 +4420,28 @@
         <v>173</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="AE3" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="AF3" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="AF3" s="2" t="s">
-        <v>562</v>
-      </c>
       <c r="AG3" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="AH3" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="AI3" s="2" t="s">
-        <v>573</v>
-      </c>
       <c r="AJ3" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AK3" s="2" t="s">
         <v>194</v>
@@ -4435,35 +4453,35 @@
         <v>194</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AO3" s="2"/>
       <c r="AP3" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="AS3" s="2"/>
       <c r="AT3" s="2"/>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="AW3" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="AX3" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="AX3" s="2" t="s">
-        <v>325</v>
-      </c>
       <c r="AY3" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AZ3" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="BA3" s="2" t="s">
         <v>194</v>
@@ -4475,196 +4493,196 @@
         <v>194</v>
       </c>
       <c r="BD3" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="BF3" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="BG3" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="BH3" s="2"/>
     </row>
     <row r="4" spans="1:60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C4" t="s">
         <v>477</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E4" t="s">
         <v>479</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
+        <v>480</v>
+      </c>
+      <c r="G4" t="s">
         <v>481</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
         <v>482</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>483</v>
       </c>
-      <c r="F4" t="s">
-        <v>484</v>
-      </c>
-      <c r="G4" t="s">
-        <v>485</v>
-      </c>
-      <c r="H4" t="s">
-        <v>486</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>487</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>491</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
+        <v>493</v>
+      </c>
+      <c r="M4" t="s">
         <v>495</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>497</v>
       </c>
-      <c r="M4" t="s">
-        <v>499</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>501</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>505</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>509</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>513</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>517</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>521</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>525</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>529</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>533</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>537</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>541</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
+        <v>543</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>544</v>
+      </c>
+      <c r="AB4" t="s">
         <v>545</v>
       </c>
-      <c r="Z4" t="s">
-        <v>547</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>548</v>
-      </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>549</v>
       </c>
-      <c r="AC4" t="s">
-        <v>553</v>
-      </c>
       <c r="AD4" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="AE4" t="s">
+        <v>555</v>
+      </c>
+      <c r="AF4" t="s">
         <v>559</v>
       </c>
-      <c r="AF4" t="s">
-        <v>563</v>
-      </c>
       <c r="AG4" t="s">
+        <v>562</v>
+      </c>
+      <c r="AH4" t="s">
         <v>566</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>570</v>
       </c>
-      <c r="AI4" t="s">
-        <v>574</v>
-      </c>
       <c r="AJ4" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="AK4" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="AL4" t="s">
+        <v>982</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>983</v>
+      </c>
+      <c r="AN4" t="s">
         <v>986</v>
       </c>
-      <c r="AM4" t="s">
-        <v>987</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>990</v>
-      </c>
       <c r="AO4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AP4" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="AQ4" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="AR4" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="AS4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AT4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AU4" t="s">
+        <v>310</v>
+      </c>
+      <c r="AV4" t="s">
         <v>314</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AW4" t="s">
         <v>318</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AX4" t="s">
         <v>322</v>
       </c>
-      <c r="AX4" t="s">
-        <v>326</v>
-      </c>
       <c r="AY4" t="s">
+        <v>325</v>
+      </c>
+      <c r="AZ4" t="s">
         <v>329</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BA4" t="s">
+        <v>331</v>
+      </c>
+      <c r="BB4" t="s">
         <v>333</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BC4" t="s">
         <v>335</v>
       </c>
-      <c r="BB4" t="s">
-        <v>337</v>
-      </c>
-      <c r="BC4" t="s">
+      <c r="BD4" t="s">
         <v>339</v>
       </c>
-      <c r="BD4" t="s">
-        <v>343</v>
-      </c>
       <c r="BE4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="BF4" t="s">
+        <v>344</v>
+      </c>
+      <c r="BG4" t="s">
         <v>348</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4795,216 +4813,216 @@
   <sheetData>
     <row r="1" spans="1:55" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>91</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>650</v>
-      </c>
       <c r="G1" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>1025</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>1027</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>948</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>743</v>
-      </c>
       <c r="Q1" s="3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>753</v>
-      </c>
       <c r="T1" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="U1" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="AG1" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="AM1" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="AP1" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>809</v>
-      </c>
       <c r="AR1" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="AT1" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="AU1" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>820</v>
-      </c>
       <c r="AW1" s="3" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="AX1" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="BA1" s="3" t="s">
-        <v>832</v>
-      </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>834</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="2" spans="1:55" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>651</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>736</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>740</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>74</v>
@@ -5013,10 +5031,10 @@
         <v>78</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>74</v>
@@ -5025,85 +5043,85 @@
         <v>78</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="AA2" s="2" t="s">
-        <v>468</v>
-      </c>
       <c r="AB2" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="AG2" s="2" t="s">
-        <v>468</v>
-      </c>
       <c r="AH2" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="AI2" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="AJ2" s="2" t="s">
-        <v>794</v>
-      </c>
       <c r="AK2" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AL2" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="AP2" s="2" t="s">
-        <v>468</v>
-      </c>
       <c r="AQ2" s="2" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="AR2" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="AS2" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="AU2" s="2" t="s">
-        <v>736</v>
-      </c>
       <c r="AV2" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AW2" s="2" t="s">
         <v>74</v>
@@ -5112,7 +5130,7 @@
         <v>78</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AZ2" s="2" t="s">
         <v>74</v>
@@ -5121,340 +5139,340 @@
         <v>78</v>
       </c>
       <c r="BB2" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="BC2" s="2" t="s">
         <v>835</v>
-      </c>
-      <c r="BC2" s="2" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="3" spans="1:55" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>652</v>
-      </c>
       <c r="G3" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>949</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="P3" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="AT3" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>950</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="AR3" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="AS3" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="AU3" s="2" t="s">
-        <v>737</v>
-      </c>
       <c r="AV3" s="2" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="AW3" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="AY3" s="2" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="AZ3" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="BA3" s="2" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="BB3" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="BC3" s="2" t="s">
         <v>836</v>
-      </c>
-      <c r="BC3" s="2" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="4" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B4" t="s">
+        <v>713</v>
+      </c>
+      <c r="C4" t="s">
+        <v>715</v>
+      </c>
+      <c r="D4" t="s">
+        <v>716</v>
+      </c>
+      <c r="E4" t="s">
         <v>717</v>
       </c>
-      <c r="C4" t="s">
-        <v>719</v>
-      </c>
-      <c r="D4" t="s">
-        <v>720</v>
-      </c>
-      <c r="E4" t="s">
-        <v>721</v>
-      </c>
       <c r="F4" t="s">
+        <v>718</v>
+      </c>
+      <c r="G4" t="s">
         <v>722</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>726</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>730</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>734</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
+        <v>947</v>
+      </c>
+      <c r="L4" t="s">
+        <v>948</v>
+      </c>
+      <c r="M4" t="s">
+        <v>949</v>
+      </c>
+      <c r="N4" t="s">
+        <v>950</v>
+      </c>
+      <c r="O4" t="s">
         <v>738</v>
       </c>
-      <c r="K4" t="s">
-        <v>951</v>
-      </c>
-      <c r="L4" t="s">
-        <v>952</v>
-      </c>
-      <c r="M4" t="s">
-        <v>953</v>
-      </c>
-      <c r="N4" t="s">
-        <v>954</v>
-      </c>
-      <c r="O4" t="s">
-        <v>742</v>
-      </c>
       <c r="P4" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="Q4" t="s">
+        <v>744</v>
+      </c>
+      <c r="R4" t="s">
         <v>748</v>
       </c>
-      <c r="R4" t="s">
-        <v>752</v>
-      </c>
       <c r="S4" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="T4" t="s">
+        <v>754</v>
+      </c>
+      <c r="U4" t="s">
+        <v>756</v>
+      </c>
+      <c r="V4" t="s">
         <v>758</v>
       </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
         <v>760</v>
       </c>
-      <c r="V4" t="s">
+      <c r="X4" t="s">
         <v>762</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Y4" t="s">
         <v>764</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Z4" t="s">
         <v>766</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AA4" t="s">
         <v>768</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AB4" t="s">
         <v>770</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AC4" t="s">
         <v>772</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
         <v>774</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AE4" t="s">
         <v>776</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AF4" t="s">
         <v>778</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>780</v>
       </c>
-      <c r="AF4" t="s">
-        <v>782</v>
-      </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>784</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>788</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>792</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AK4" t="s">
+        <v>794</v>
+      </c>
+      <c r="AL4" t="s">
         <v>796</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AM4" t="s">
         <v>798</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AN4" t="s">
         <v>800</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AO4" t="s">
         <v>802</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AP4" t="s">
         <v>804</v>
       </c>
-      <c r="AO4" t="s">
-        <v>806</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>808</v>
-      </c>
       <c r="AQ4" t="s">
+        <v>807</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>809</v>
+      </c>
+      <c r="AS4" t="s">
         <v>811</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AT4" t="s">
         <v>813</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AU4" t="s">
         <v>815</v>
       </c>
-      <c r="AT4" t="s">
-        <v>817</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>819</v>
-      </c>
       <c r="AV4" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="AW4" t="s">
+        <v>821</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>823</v>
+      </c>
+      <c r="AY4" t="s">
         <v>825</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AZ4" t="s">
         <v>827</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="BA4" t="s">
         <v>829</v>
       </c>
-      <c r="AZ4" t="s">
-        <v>831</v>
-      </c>
-      <c r="BA4" t="s">
+      <c r="BB4" t="s">
         <v>833</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BC4" t="s">
         <v>837</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="5" spans="1:55" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5551,81 +5569,81 @@
   <sheetData>
     <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>650</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>853</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>866</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>882</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>651</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>74</v>
@@ -5634,13 +5652,13 @@
         <v>78</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>863</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>74</v>
@@ -5649,62 +5667,62 @@
         <v>78</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>883</v>
-      </c>
       <c r="R2" s="2" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>652</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>864</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="O3" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>876</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>880</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>226</v>
@@ -5715,58 +5733,58 @@
     </row>
     <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B4" t="s">
+        <v>839</v>
+      </c>
+      <c r="C4" t="s">
+        <v>841</v>
+      </c>
+      <c r="D4" t="s">
+        <v>842</v>
+      </c>
+      <c r="E4" t="s">
         <v>843</v>
       </c>
-      <c r="C4" t="s">
-        <v>845</v>
-      </c>
-      <c r="D4" t="s">
-        <v>846</v>
-      </c>
-      <c r="E4" t="s">
-        <v>847</v>
-      </c>
       <c r="F4" t="s">
+        <v>844</v>
+      </c>
+      <c r="G4" t="s">
         <v>848</v>
       </c>
-      <c r="G4" t="s">
-        <v>852</v>
-      </c>
       <c r="H4" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="I4" t="s">
+        <v>853</v>
+      </c>
+      <c r="J4" t="s">
         <v>857</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>861</v>
       </c>
-      <c r="K4" t="s">
-        <v>865</v>
-      </c>
       <c r="L4" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="M4" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="N4" t="s">
+        <v>869</v>
+      </c>
+      <c r="O4" t="s">
         <v>873</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>877</v>
       </c>
-      <c r="P4" t="s">
-        <v>881</v>
-      </c>
       <c r="Q4" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="R4" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5829,111 +5847,111 @@
   <sheetData>
     <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>593</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>923</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="AB1" s="1" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>586</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>590</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>74</v>
@@ -5942,61 +5960,61 @@
         <v>78</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>625</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>1036</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>629</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>116</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="T2" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>328</v>
-      </c>
       <c r="X2" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>193</v>
@@ -6008,7 +6026,7 @@
         <v>78</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>74</v>
@@ -6017,76 +6035,76 @@
         <v>78</v>
       </c>
       <c r="AE2" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>591</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>626</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>630</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>325</v>
-      </c>
       <c r="W3" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>194</v>
@@ -6098,114 +6116,114 @@
         <v>194</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AE3" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="AF3" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C4" t="s">
+        <v>604</v>
+      </c>
+      <c r="D4" t="s">
+        <v>605</v>
+      </c>
+      <c r="E4" t="s">
         <v>606</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
         <v>607</v>
       </c>
-      <c r="C4" t="s">
-        <v>608</v>
-      </c>
-      <c r="D4" t="s">
-        <v>609</v>
-      </c>
-      <c r="E4" t="s">
-        <v>610</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>956</v>
+      </c>
+      <c r="H4" t="s">
         <v>611</v>
       </c>
-      <c r="G4" t="s">
-        <v>960</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>615</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>619</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>623</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>627</v>
       </c>
-      <c r="M4" t="s">
-        <v>631</v>
-      </c>
       <c r="N4" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="O4" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="P4" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="Q4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="R4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="S4" t="s">
+        <v>310</v>
+      </c>
+      <c r="T4" t="s">
         <v>314</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>318</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>322</v>
       </c>
-      <c r="V4" t="s">
-        <v>326</v>
-      </c>
       <c r="W4" t="s">
+        <v>325</v>
+      </c>
+      <c r="X4" t="s">
         <v>329</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
+        <v>331</v>
+      </c>
+      <c r="Z4" t="s">
         <v>333</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AA4" t="s">
         <v>335</v>
       </c>
-      <c r="Z4" t="s">
-        <v>337</v>
-      </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>339</v>
       </c>
-      <c r="AB4" t="s">
-        <v>343</v>
-      </c>
       <c r="AC4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AD4" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE4" t="s">
         <v>348</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>352</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6283,49 +6301,49 @@
   <sheetData>
     <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>91</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>900</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>901</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>991</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>992</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>999</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>1017</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>902</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>903</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>904</v>
       </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -6334,41 +6352,41 @@
     </row>
     <row r="2" spans="1:19" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>643</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>647</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -6377,37 +6395,37 @@
     </row>
     <row r="3" spans="1:19" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>644</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>648</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -6416,49 +6434,49 @@
     </row>
     <row r="4" spans="1:19" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>905</v>
+      </c>
+      <c r="B4" t="s">
+        <v>906</v>
+      </c>
+      <c r="C4" t="s">
+        <v>907</v>
+      </c>
+      <c r="D4" t="s">
+        <v>908</v>
+      </c>
+      <c r="E4" t="s">
         <v>909</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
         <v>910</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>911</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
         <v>912</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" s="11" t="s">
+        <v>993</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>994</v>
+      </c>
+      <c r="K4" t="s">
+        <v>998</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="M4" t="s">
         <v>913</v>
       </c>
-      <c r="F4" t="s">
+      <c r="N4" t="s">
+        <v>936</v>
+      </c>
+      <c r="O4" t="s">
         <v>914</v>
-      </c>
-      <c r="G4" t="s">
-        <v>915</v>
-      </c>
-      <c r="H4" t="s">
-        <v>916</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>997</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>998</v>
-      </c>
-      <c r="K4" t="s">
-        <v>1002</v>
-      </c>
-      <c r="L4" t="s">
-        <v>1020</v>
-      </c>
-      <c r="M4" t="s">
-        <v>917</v>
-      </c>
-      <c r="N4" t="s">
-        <v>940</v>
-      </c>
-      <c r="O4" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6532,103 +6550,103 @@
   <sheetData>
     <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>593</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>957</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>971</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>920</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>919</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>961</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>975</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="AB1" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>1022</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>924</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>926</v>
-      </c>
       <c r="AC1" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AD1" s="3"/>
     </row>
     <row r="2" spans="1:30" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>586</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>74</v>
@@ -6637,55 +6655,55 @@
         <v>78</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>116</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>328</v>
-      </c>
       <c r="V2" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>193</v>
@@ -6697,7 +6715,7 @@
         <v>78</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>74</v>
@@ -6706,62 +6724,62 @@
         <v>78</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AD2" s="2"/>
     </row>
     <row r="3" spans="1:30" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>583</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>587</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>325</v>
-      </c>
       <c r="U3" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2" t="s">
@@ -6772,103 +6790,103 @@
       </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AD3" s="2"/>
     </row>
     <row r="4" spans="1:30" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>924</v>
+      </c>
+      <c r="B4" t="s">
+        <v>925</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="D4" t="s">
+        <v>927</v>
+      </c>
+      <c r="E4" t="s">
         <v>928</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
         <v>929</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="G4" t="s">
+        <v>935</v>
+      </c>
+      <c r="H4" t="s">
         <v>930</v>
       </c>
-      <c r="D4" t="s">
-        <v>931</v>
-      </c>
-      <c r="E4" t="s">
-        <v>932</v>
-      </c>
-      <c r="F4" t="s">
-        <v>933</v>
-      </c>
-      <c r="G4" t="s">
-        <v>939</v>
-      </c>
-      <c r="H4" t="s">
-        <v>934</v>
-      </c>
       <c r="I4" s="9" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="K4" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="N4" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="O4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="Q4" t="s">
+        <v>310</v>
+      </c>
+      <c r="R4" t="s">
         <v>314</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>318</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>322</v>
       </c>
-      <c r="T4" t="s">
-        <v>326</v>
-      </c>
       <c r="U4" t="s">
+        <v>325</v>
+      </c>
+      <c r="V4" t="s">
         <v>329</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
+        <v>331</v>
+      </c>
+      <c r="X4" t="s">
         <v>333</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Y4" t="s">
         <v>335</v>
       </c>
-      <c r="X4" t="s">
-        <v>337</v>
-      </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>339</v>
       </c>
-      <c r="Z4" t="s">
-        <v>343</v>
-      </c>
       <c r="AA4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AB4" t="s">
+        <v>344</v>
+      </c>
+      <c r="AC4" t="s">
         <v>348</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7440,84 +7458,84 @@
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>593</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>602</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="O1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>586</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>590</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>74</v>
@@ -7526,34 +7544,34 @@
         <v>78</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>603</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>328</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>193</v>
@@ -7565,7 +7583,7 @@
         <v>78</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>74</v>
@@ -7574,51 +7592,51 @@
         <v>78</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>591</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>600</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>604</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>325</v>
-      </c>
       <c r="N3" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>194</v>
@@ -7630,90 +7648,90 @@
         <v>194</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="V3" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>580</v>
+      </c>
+      <c r="B4" t="s">
         <v>584</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>588</v>
       </c>
-      <c r="C4" t="s">
-        <v>592</v>
-      </c>
       <c r="D4" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E4" t="s">
+        <v>593</v>
+      </c>
+      <c r="F4" t="s">
         <v>597</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>601</v>
       </c>
-      <c r="G4" t="s">
-        <v>605</v>
-      </c>
       <c r="H4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="J4" t="s">
+        <v>310</v>
+      </c>
+      <c r="K4" t="s">
         <v>314</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>318</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>322</v>
       </c>
-      <c r="M4" t="s">
-        <v>326</v>
-      </c>
       <c r="N4" t="s">
+        <v>325</v>
+      </c>
+      <c r="O4" t="s">
         <v>329</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q4" t="s">
         <v>333</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>335</v>
       </c>
-      <c r="Q4" t="s">
-        <v>337</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>339</v>
       </c>
-      <c r="S4" t="s">
-        <v>343</v>
-      </c>
       <c r="T4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="U4" t="s">
+        <v>344</v>
+      </c>
+      <c r="V4" t="s">
         <v>348</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>352</v>
-      </c>
-      <c r="W4" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7965,7 +7983,7 @@
         <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.2">
@@ -7985,12 +8003,12 @@
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>89</v>
@@ -8005,7 +8023,7 @@
         <v>101</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -8025,7 +8043,7 @@
         <v>102</v>
       </c>
       <c r="F4" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8113,14 +8131,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:CD5"/>
+  <dimension ref="A1:CF5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="AP2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AR1" sqref="AR1:AT1048576"/>
+      <selection pane="bottomRight" activeCell="AQ1" sqref="AQ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8148,24 +8166,27 @@
     <col min="37" max="37" width="28.6640625" customWidth="1"/>
     <col min="38" max="40" width="25.6640625" customWidth="1"/>
     <col min="41" max="41" width="31.6640625" customWidth="1"/>
-    <col min="42" max="51" width="25.6640625" customWidth="1"/>
-    <col min="52" max="53" width="0" hidden="1" customWidth="1"/>
-    <col min="54" max="55" width="25.6640625" customWidth="1"/>
-    <col min="56" max="57" width="0" hidden="1" customWidth="1"/>
-    <col min="58" max="59" width="25.6640625" customWidth="1"/>
-    <col min="60" max="61" width="0" hidden="1" customWidth="1"/>
-    <col min="62" max="62" width="27.6640625" customWidth="1"/>
-    <col min="63" max="63" width="26.6640625" customWidth="1"/>
-    <col min="64" max="65" width="8.83203125" hidden="1" customWidth="1"/>
-    <col min="66" max="75" width="25.6640625" customWidth="1"/>
-    <col min="76" max="77" width="0" hidden="1" customWidth="1"/>
-    <col min="78" max="78" width="25.6640625" customWidth="1"/>
-    <col min="79" max="80" width="0" hidden="1" customWidth="1"/>
-    <col min="81" max="81" width="25.6640625" customWidth="1"/>
-    <col min="82" max="82" width="37.6640625" customWidth="1"/>
+    <col min="42" max="43" width="25.6640625" customWidth="1"/>
+    <col min="44" max="44" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="12.83203125" hidden="1" customWidth="1"/>
+    <col min="46" max="53" width="25.6640625" customWidth="1"/>
+    <col min="54" max="55" width="0" hidden="1" customWidth="1"/>
+    <col min="56" max="57" width="25.6640625" customWidth="1"/>
+    <col min="58" max="59" width="0" hidden="1" customWidth="1"/>
+    <col min="60" max="61" width="25.6640625" customWidth="1"/>
+    <col min="62" max="63" width="0" hidden="1" customWidth="1"/>
+    <col min="64" max="64" width="27.6640625" customWidth="1"/>
+    <col min="65" max="65" width="26.6640625" customWidth="1"/>
+    <col min="66" max="67" width="8.83203125" hidden="1" customWidth="1"/>
+    <col min="68" max="77" width="25.6640625" customWidth="1"/>
+    <col min="78" max="79" width="0" hidden="1" customWidth="1"/>
+    <col min="80" max="80" width="25.6640625" customWidth="1"/>
+    <col min="81" max="82" width="0" hidden="1" customWidth="1"/>
+    <col min="83" max="83" width="25.6640625" customWidth="1"/>
+    <col min="84" max="84" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>115</v>
       </c>
@@ -8260,16 +8281,16 @@
         <v>215</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>220</v>
@@ -8293,79 +8314,83 @@
         <v>244</v>
       </c>
       <c r="AQ1" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AR1" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="BC1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="BA1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="BD1" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="BI1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="BG1" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="BN1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="BJ1" s="1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="BO1" s="1"/>
-      <c r="BP1" s="1"/>
+      <c r="BO1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="BQ1" s="1"/>
       <c r="BR1" s="1"/>
       <c r="BS1" s="1"/>
@@ -8380,8 +8405,10 @@
       <c r="CB1" s="1"/>
       <c r="CC1" s="1"/>
       <c r="CD1" s="1"/>
-    </row>
-    <row r="2" spans="1:82" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CE1" s="1"/>
+      <c r="CF1" s="1"/>
+    </row>
+    <row r="2" spans="1:84" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>116</v>
       </c>
@@ -8509,79 +8536,83 @@
         <v>245</v>
       </c>
       <c r="AQ2" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AW2" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="AR2" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="AX2" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="AY2" s="2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="BB2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="BE2" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="BC2" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="BD2" s="2" t="s">
+      <c r="BF2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BF2" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="BG2" s="2" t="s">
-        <v>279</v>
-      </c>
       <c r="BH2" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BI2" s="2" t="s">
+      <c r="BK2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BJ2" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="BK2" s="2" t="s">
+      <c r="BL2" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="BM2" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="BL2" s="2" t="s">
+      <c r="BN2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BM2" s="2" t="s">
+      <c r="BO2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BN2" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="BO2" s="2"/>
-      <c r="BP2" s="2"/>
+      <c r="BP2" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="BQ2" s="2"/>
       <c r="BR2" s="2"/>
       <c r="BS2" s="2"/>
@@ -8596,8 +8627,10 @@
       <c r="CB2" s="2"/>
       <c r="CC2" s="2"/>
       <c r="CD2" s="2"/>
-    </row>
-    <row r="3" spans="1:82" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CE2" s="2"/>
+      <c r="CF2" s="2"/>
+    </row>
+    <row r="3" spans="1:84" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -8677,22 +8710,22 @@
         <v>203</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="AI3" s="2" t="s">
         <v>218</v>
@@ -8719,79 +8752,83 @@
         <v>246</v>
       </c>
       <c r="AQ3" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="AW3" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="AR3" s="2" t="s">
-        <v>1054</v>
-      </c>
-      <c r="AS3" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AT3" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AX3" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="AV3" s="2" t="s">
+      <c r="AY3" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="AZ3" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="AX3" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="AY3" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="AZ3" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="BA3" s="2" t="s">
         <v>194</v>
       </c>
       <c r="BB3" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="BC3" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="BD3" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="BE3" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="BC3" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="BD3" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="BE3" s="2" t="s">
-        <v>280</v>
-      </c>
       <c r="BF3" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="BG3" s="2" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="BH3" s="2" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="BI3" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="BJ3" s="2" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="BK3" s="2" t="s">
-        <v>194</v>
+        <v>288</v>
       </c>
       <c r="BL3" s="2" t="s">
-        <v>197</v>
+        <v>296</v>
       </c>
       <c r="BM3" s="2" t="s">
         <v>194</v>
       </c>
       <c r="BN3" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="BO3" s="2"/>
-      <c r="BP3" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="BO3" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="BP3" s="2" t="s">
+        <v>301</v>
+      </c>
       <c r="BQ3" s="2"/>
       <c r="BR3" s="2"/>
       <c r="BS3" s="2"/>
@@ -8806,8 +8843,10 @@
       <c r="CB3" s="2"/>
       <c r="CC3" s="2"/>
       <c r="CD3" s="2"/>
-    </row>
-    <row r="4" spans="1:82" hidden="1" x14ac:dyDescent="0.2">
+      <c r="CE3" s="2"/>
+      <c r="CF3" s="2"/>
+    </row>
+    <row r="4" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -8902,13 +8941,13 @@
         <v>216</v>
       </c>
       <c r="AF4" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="AG4" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="AH4" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="AI4" t="s">
         <v>219</v>
@@ -8935,79 +8974,85 @@
         <v>247</v>
       </c>
       <c r="AQ4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AW4" t="s">
         <v>251</v>
       </c>
-      <c r="AR4" t="s">
-        <v>1057</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>1058</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>1059</v>
-      </c>
-      <c r="AU4" t="s">
+      <c r="AX4" t="s">
         <v>255</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AY4" t="s">
         <v>259</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AZ4" t="s">
         <v>263</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="BA4" t="s">
+        <v>265</v>
+      </c>
+      <c r="BB4" t="s">
         <v>267</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="BC4" t="s">
         <v>269</v>
       </c>
-      <c r="AZ4" t="s">
-        <v>271</v>
-      </c>
-      <c r="BA4" t="s">
+      <c r="BD4" t="s">
         <v>273</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BE4" t="s">
         <v>277</v>
       </c>
-      <c r="BC4" t="s">
-        <v>281</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>284</v>
-      </c>
-      <c r="BE4" t="s">
+      <c r="BF4" t="s">
+        <v>280</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>282</v>
+      </c>
+      <c r="BH4" t="s">
         <v>286</v>
       </c>
-      <c r="BF4" t="s">
-        <v>290</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>293</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>296</v>
-      </c>
       <c r="BI4" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="BJ4" t="s">
-        <v>976</v>
+        <v>292</v>
       </c>
       <c r="BK4" t="s">
-        <v>977</v>
+        <v>294</v>
       </c>
       <c r="BL4" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="BM4" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="BN4" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="5" spans="1:82" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>974</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>975</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="5" spans="1:84" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -9092,6 +9137,8 @@
       <c r="CB5" s="1"/>
       <c r="CC5" s="1"/>
       <c r="CD5" s="1"/>
+      <c r="CE5" s="1"/>
+      <c r="CF5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9123,72 +9170,72 @@
   <sheetData>
     <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>660</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>665</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>651</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>74</v>
@@ -9197,114 +9244,114 @@
         <v>78</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>652</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B4" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C4" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D4" t="s">
+        <v>641</v>
+      </c>
+      <c r="E4" t="s">
         <v>645</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>649</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>651</v>
+      </c>
+      <c r="H4" t="s">
         <v>653</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>655</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>657</v>
       </c>
-      <c r="I4" t="s">
-        <v>659</v>
-      </c>
-      <c r="J4" t="s">
-        <v>661</v>
-      </c>
       <c r="K4" t="s">
+        <v>658</v>
+      </c>
+      <c r="L4" t="s">
+        <v>660</v>
+      </c>
+      <c r="M4" t="s">
         <v>662</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>664</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>666</v>
-      </c>
-      <c r="N4" t="s">
-        <v>668</v>
-      </c>
-      <c r="O4" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9384,13 +9431,13 @@
   <sheetData>
     <row r="1" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>124</v>
@@ -9420,25 +9467,25 @@
         <v>178</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>210</v>
@@ -9450,142 +9497,142 @@
         <v>215</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>428</v>
-      </c>
       <c r="AI1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="AL1" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>441</v>
-      </c>
       <c r="AN1" s="1" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="AT1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="AZ1" s="1" t="s">
-        <v>471</v>
-      </c>
       <c r="BA1" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="BE1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="BF1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="BF1" s="1" t="s">
-        <v>319</v>
-      </c>
       <c r="BG1" s="1" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="BI1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="BL1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="BK1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="BM1" s="1" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="BQ1" s="1"/>
     </row>
@@ -9618,7 +9665,7 @@
         <v>145</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>74</v>
@@ -9627,7 +9674,7 @@
         <v>78</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>74</v>
@@ -9636,7 +9683,7 @@
         <v>78</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>74</v>
@@ -9645,10 +9692,10 @@
         <v>78</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>74</v>
@@ -9657,7 +9704,7 @@
         <v>78</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>74</v>
@@ -9666,34 +9713,34 @@
         <v>78</v>
       </c>
       <c r="Z2" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="AA2" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="AH2" s="2" t="s">
-        <v>429</v>
-      </c>
       <c r="AI2" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AJ2" s="2" t="s">
         <v>193</v>
@@ -9705,10 +9752,10 @@
         <v>78</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AO2" s="2" t="s">
         <v>193</v>
@@ -9720,58 +9767,58 @@
         <v>78</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AT2" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AU2" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>468</v>
       </c>
       <c r="AZ2" s="2" t="s">
         <v>116</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="BE2" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="BF2" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="BF2" s="2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BH2" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="BH2" s="2" t="s">
-        <v>328</v>
-      </c>
       <c r="BI2" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="BJ2" s="2" t="s">
         <v>193</v>
@@ -9783,7 +9830,7 @@
         <v>78</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="BN2" s="2" t="s">
         <v>74</v>
@@ -9792,7 +9839,7 @@
         <v>78</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="BQ2" s="2"/>
     </row>
@@ -9828,73 +9875,73 @@
         <v>173</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="Z3" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="AA3" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="AA3" s="15" t="s">
+      <c r="AB3" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="AG3" s="2" t="s">
-        <v>426</v>
-      </c>
       <c r="AH3" s="8" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AJ3" s="2" t="s">
         <v>194</v>
@@ -9906,10 +9953,10 @@
         <v>194</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AO3" s="2" t="s">
         <v>194</v>
@@ -9921,50 +9968,50 @@
         <v>194</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AS3" s="2" t="s">
         <v>234</v>
       </c>
       <c r="AT3" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AU3" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AV3" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="AV3" s="2" t="s">
+      <c r="AW3" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="AX3" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="AX3" s="2" t="s">
+      <c r="AY3" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="AY3" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="AZ3" s="2"/>
       <c r="BA3" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="BB3" s="2"/>
       <c r="BC3" s="2"/>
       <c r="BD3" s="2"/>
       <c r="BE3" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="BF3" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="BF3" s="2" t="s">
+      <c r="BG3" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="BG3" s="2" t="s">
-        <v>325</v>
-      </c>
       <c r="BH3" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="BI3" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="BJ3" s="2" t="s">
         <v>194</v>
@@ -9976,223 +10023,223 @@
         <v>194</v>
       </c>
       <c r="BM3" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="BN3" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="BO3" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="BP3" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="BQ3" s="2"/>
     </row>
     <row r="4" spans="1:69" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C4" t="s">
         <v>358</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>359</v>
+      </c>
+      <c r="E4" t="s">
         <v>360</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
+        <v>361</v>
+      </c>
+      <c r="G4" t="s">
         <v>362</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
         <v>363</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>364</v>
       </c>
-      <c r="F4" t="s">
-        <v>365</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>366</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>367</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>368</v>
       </c>
-      <c r="J4" t="s">
-        <v>370</v>
-      </c>
-      <c r="K4" t="s">
-        <v>371</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>372</v>
       </c>
-      <c r="M4" t="s">
-        <v>376</v>
-      </c>
       <c r="N4" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="O4" t="s">
+        <v>377</v>
+      </c>
+      <c r="P4" t="s">
         <v>381</v>
       </c>
-      <c r="P4" t="s">
-        <v>385</v>
-      </c>
       <c r="Q4" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="R4" t="s">
+        <v>387</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="T4" t="s">
+        <v>389</v>
+      </c>
+      <c r="U4" t="s">
+        <v>390</v>
+      </c>
+      <c r="V4" t="s">
         <v>391</v>
       </c>
-      <c r="S4" t="s">
-        <v>1016</v>
-      </c>
-      <c r="T4" t="s">
-        <v>393</v>
-      </c>
-      <c r="U4" t="s">
-        <v>394</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
+        <v>966</v>
+      </c>
+      <c r="X4" t="s">
+        <v>967</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>968</v>
+      </c>
+      <c r="Z4" t="s">
         <v>395</v>
       </c>
-      <c r="W4" t="s">
-        <v>970</v>
-      </c>
-      <c r="X4" t="s">
-        <v>971</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>972</v>
-      </c>
-      <c r="Z4" t="s">
+      <c r="AA4" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="AA4" s="16" t="s">
+      <c r="AB4" t="s">
         <v>403</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>407</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>411</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>415</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>419</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>423</v>
       </c>
-      <c r="AG4" t="s">
-        <v>427</v>
-      </c>
       <c r="AH4" t="s">
+        <v>426</v>
+      </c>
+      <c r="AI4" t="s">
         <v>430</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
+        <v>432</v>
+      </c>
+      <c r="AK4" t="s">
         <v>434</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AL4" t="s">
         <v>436</v>
       </c>
-      <c r="AK4" t="s">
-        <v>438</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>440</v>
-      </c>
       <c r="AM4" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="AN4" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="AO4" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="AP4" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="AQ4" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="AR4" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="AS4" t="s">
+        <v>442</v>
+      </c>
+      <c r="AT4" t="s">
         <v>446</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AU4" t="s">
         <v>450</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AV4" t="s">
         <v>454</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AW4" t="s">
         <v>458</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AX4" t="s">
         <v>462</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AY4" t="s">
         <v>466</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>470</v>
       </c>
       <c r="AZ4" t="s">
         <v>117</v>
       </c>
       <c r="BA4" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="BB4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="BC4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="BD4" t="s">
+        <v>310</v>
+      </c>
+      <c r="BE4" t="s">
         <v>314</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BF4" t="s">
         <v>318</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BG4" t="s">
         <v>322</v>
       </c>
-      <c r="BG4" t="s">
-        <v>326</v>
-      </c>
       <c r="BH4" t="s">
+        <v>325</v>
+      </c>
+      <c r="BI4" t="s">
         <v>329</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BJ4" t="s">
+        <v>331</v>
+      </c>
+      <c r="BK4" t="s">
         <v>333</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BL4" t="s">
         <v>335</v>
       </c>
-      <c r="BK4" t="s">
-        <v>337</v>
-      </c>
-      <c r="BL4" t="s">
+      <c r="BM4" t="s">
         <v>339</v>
       </c>
-      <c r="BM4" t="s">
-        <v>343</v>
-      </c>
       <c r="BN4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="BO4" t="s">
+        <v>344</v>
+      </c>
+      <c r="BP4" t="s">
         <v>348</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10298,72 +10345,72 @@
   <sheetData>
     <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>650</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>682</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>665</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>651</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>74</v>
@@ -10372,114 +10419,114 @@
         <v>78</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>652</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B4" t="s">
+        <v>668</v>
+      </c>
+      <c r="C4" t="s">
+        <v>670</v>
+      </c>
+      <c r="D4" t="s">
+        <v>671</v>
+      </c>
+      <c r="E4" t="s">
         <v>672</v>
       </c>
-      <c r="C4" t="s">
-        <v>674</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
+        <v>673</v>
+      </c>
+      <c r="G4" t="s">
         <v>675</v>
       </c>
-      <c r="E4" t="s">
-        <v>676</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>677</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>679</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
+        <v>680</v>
+      </c>
+      <c r="K4" t="s">
         <v>681</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
+        <v>682</v>
+      </c>
+      <c r="M4" t="s">
         <v>683</v>
       </c>
-      <c r="J4" t="s">
+      <c r="N4" t="s">
         <v>684</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>685</v>
-      </c>
-      <c r="L4" t="s">
-        <v>686</v>
-      </c>
-      <c r="M4" t="s">
-        <v>687</v>
-      </c>
-      <c r="N4" t="s">
-        <v>688</v>
-      </c>
-      <c r="O4" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10532,63 +10579,63 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>650</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>707</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>651</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>74</v>
@@ -10597,85 +10644,85 @@
         <v>78</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>708</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>652</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>709</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B4" t="s">
+        <v>687</v>
+      </c>
+      <c r="C4" t="s">
+        <v>689</v>
+      </c>
+      <c r="D4" t="s">
+        <v>690</v>
+      </c>
+      <c r="E4" t="s">
         <v>691</v>
       </c>
-      <c r="C4" t="s">
-        <v>693</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
+        <v>692</v>
+      </c>
+      <c r="G4" t="s">
         <v>694</v>
       </c>
-      <c r="E4" t="s">
-        <v>695</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>696</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>698</v>
       </c>
-      <c r="H4" t="s">
-        <v>700</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>702</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>706</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>710</v>
-      </c>
-      <c r="L4" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">

--- a/template/hca_template_contributor.xlsx
+++ b/template/hca_template_contributor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenios/Documents/GitHub/geo_to_hca/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AD1B14-F15E-624D-8631-8C7EC766EB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2434B4-E674-E34F-B0D4-46CDD28F323E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="760" windowWidth="21360" windowHeight="17600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="21360" windowHeight="17600" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="1087">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -3246,6 +3246,69 @@
   </si>
   <si>
     <t>donor_organism.medical_history.medication.ontology_label</t>
+  </si>
+  <si>
+    <t>DIGESTION TIME</t>
+  </si>
+  <si>
+    <t>DIGESTION TIME UNIT</t>
+  </si>
+  <si>
+    <t>DIGESTION TIME UNIT ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>DIGESTION TIME UNIT ONTOLOGY LABEL</t>
+  </si>
+  <si>
+    <t>DIGESTION TEMPERATURE</t>
+  </si>
+  <si>
+    <t>Time of digestion of the specimen.</t>
+  </si>
+  <si>
+    <t>The unit in which the digestion time is expressed.</t>
+  </si>
+  <si>
+    <t>Temperature of digestion in Celsius or in general terms (i.e. cold, warm, room temperature).</t>
+  </si>
+  <si>
+    <t>For example: 2; 5; 10</t>
+  </si>
+  <si>
+    <t>For example: second; week</t>
+  </si>
+  <si>
+    <t>For example: UO:0000010; UO:0000034</t>
+  </si>
+  <si>
+    <t>Should be either numeric value or one of frozen, cold, room temperature, warm. For example: 4; 37; cold</t>
+  </si>
+  <si>
+    <t>dissociation_protocol.digestion_time</t>
+  </si>
+  <si>
+    <t>dissociation_protocol.digestion_time_unit.text</t>
+  </si>
+  <si>
+    <t>dissociation_protocol.digestion_time_unit.ontology</t>
+  </si>
+  <si>
+    <t>dissociation_protocol.digestion_time_unit.ontology_label</t>
+  </si>
+  <si>
+    <t>dissociation_protocol.digestion_temperature</t>
+  </si>
+  <si>
+    <t>DIGESTION SOLUTION</t>
+  </si>
+  <si>
+    <t>Enzyme(s) or reagent(s) of the solution that was used for the digestion of the specimen.</t>
+  </si>
+  <si>
+    <t>Should be of: Citric-acid based, Detergent-based, Lysis buffer, Accutase, Collagenase, Collagenase A, Collagenase D, Collagenase I, Collagenase II, Collagenase IV, Dispase, Dispase II, DNAse I, Elastase, Hyaluronidase, Liberase, Papain, Protease, TrypLE, Trypsin</t>
+  </si>
+  <si>
+    <t>dissociation_protocol.digestion_solution</t>
   </si>
 </sst>
 </file>
@@ -8133,7 +8196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="AP2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
@@ -10322,14 +10385,14 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10340,10 +10403,15 @@
     <col min="4" max="6" width="25.6640625" customWidth="1"/>
     <col min="7" max="7" width="30.6640625" customWidth="1"/>
     <col min="8" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="15" width="25.6640625" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" customWidth="1"/>
+    <col min="12" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="19" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" customWidth="1"/>
+    <col min="16" max="21" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>572</v>
       </c>
@@ -10372,25 +10440,43 @@
         <v>678</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>469</v>
       </c>
@@ -10419,25 +10505,43 @@
         <v>78</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>470</v>
       </c>
@@ -10464,25 +10568,43 @@
         <v>338</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>573</v>
       </c>
@@ -10511,25 +10633,43 @@
         <v>679</v>
       </c>
       <c r="J4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="P4" t="s">
         <v>680</v>
       </c>
-      <c r="K4" t="s">
+      <c r="Q4" t="s">
         <v>681</v>
       </c>
-      <c r="L4" t="s">
+      <c r="R4" t="s">
         <v>682</v>
       </c>
-      <c r="M4" t="s">
+      <c r="S4" t="s">
         <v>683</v>
       </c>
-      <c r="N4" t="s">
+      <c r="T4" t="s">
         <v>684</v>
       </c>
-      <c r="O4" t="s">
+      <c r="U4" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -10547,6 +10687,12 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/hca_template_contributor.xlsx
+++ b/template/hca_template_contributor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenios/Documents/GitHub/geo_to_hca/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2434B4-E674-E34F-B0D4-46CDD28F323E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC4C2C5-C98E-FF45-AAF4-5A5D4707B54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="21360" windowHeight="17600" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="21360" windowHeight="17600" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="1099">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -3309,6 +3309,42 @@
   </si>
   <si>
     <t>dissociation_protocol.digestion_solution</t>
+  </si>
+  <si>
+    <t>COLLECTION INSTITUTE NAME (Required)</t>
+  </si>
+  <si>
+    <t>COLLECTION INSTITUTE LATITUDE</t>
+  </si>
+  <si>
+    <t>COLLECTION INSTITUTE LONGITUDE</t>
+  </si>
+  <si>
+    <t>Name of the institute where the biomaterial was collected on.</t>
+  </si>
+  <si>
+    <t>Latitute of the institute where the biomaterial was collected on, in decimal degrees.</t>
+  </si>
+  <si>
+    <t>Longitude of the institute where the biomaterial was collected on, in decimal degrees.</t>
+  </si>
+  <si>
+    <t>For example: institute_1; Addenbrooke's Hospital; University of California, San Francisco</t>
+  </si>
+  <si>
+    <t>For example: 52.1; -0.127541; 38.045956</t>
+  </si>
+  <si>
+    <t>For example: 0.1; -84.512016; 23.792138</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.collection_institute.name</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.collection_institute.latitude</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.collection_institute.longitude</t>
   </si>
 </sst>
 </file>
@@ -9443,14 +9479,14 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:BQ5"/>
+  <dimension ref="A1:BT5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AX2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AZ1" sqref="AZ1:BB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9481,18 +9517,18 @@
     <col min="48" max="48" width="33.6640625" customWidth="1"/>
     <col min="49" max="49" width="37.6640625" customWidth="1"/>
     <col min="50" max="50" width="32.6640625" customWidth="1"/>
-    <col min="51" max="51" width="26.6640625" customWidth="1"/>
-    <col min="52" max="52" width="34.6640625" customWidth="1"/>
-    <col min="53" max="53" width="33.6640625" customWidth="1"/>
-    <col min="54" max="62" width="25.6640625" customWidth="1"/>
-    <col min="63" max="64" width="0" hidden="1" customWidth="1"/>
-    <col min="65" max="65" width="25.6640625" customWidth="1"/>
+    <col min="51" max="54" width="26.6640625" customWidth="1"/>
+    <col min="55" max="55" width="34.6640625" customWidth="1"/>
+    <col min="56" max="56" width="33.6640625" customWidth="1"/>
+    <col min="57" max="65" width="25.6640625" customWidth="1"/>
     <col min="66" max="67" width="0" hidden="1" customWidth="1"/>
     <col min="68" max="68" width="25.6640625" customWidth="1"/>
-    <col min="69" max="69" width="37.6640625" customWidth="1"/>
+    <col min="69" max="70" width="0" hidden="1" customWidth="1"/>
+    <col min="71" max="71" width="25.6640625" customWidth="1"/>
+    <col min="72" max="72" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>353</v>
       </c>
@@ -9647,59 +9683,68 @@
         <v>463</v>
       </c>
       <c r="AZ1" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="BC1" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="BQ1" s="1"/>
-    </row>
-    <row r="2" spans="1:69" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BT1" s="1"/>
+    </row>
+    <row r="2" spans="1:72" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>116</v>
       </c>
@@ -9854,46 +9899,46 @@
         <v>464</v>
       </c>
       <c r="AZ2" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="BC2" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BE2" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BF2" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="BD2" s="2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BH2" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="BF2" s="2" t="s">
+      <c r="BI2" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BJ2" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BK2" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="BI2" s="2" t="s">
+      <c r="BL2" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="BJ2" s="2" t="s">
+      <c r="BM2" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="BK2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BL2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BM2" s="2" t="s">
-        <v>337</v>
       </c>
       <c r="BN2" s="2" t="s">
         <v>74</v>
@@ -9902,11 +9947,20 @@
         <v>78</v>
       </c>
       <c r="BP2" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="BQ2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BR2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BS2" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="BQ2" s="2"/>
-    </row>
-    <row r="3" spans="1:69" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BT2" s="2"/>
+    </row>
+    <row r="3" spans="1:72" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -10054,52 +10108,61 @@
       <c r="AY3" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="AZ3" s="2"/>
+      <c r="AZ3" s="2" t="s">
+        <v>1093</v>
+      </c>
       <c r="BA3" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="BB3" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="BC3" s="2"/>
+      <c r="BD3" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="BB3" s="2"/>
-      <c r="BC3" s="2"/>
-      <c r="BD3" s="2"/>
-      <c r="BE3" s="2" t="s">
+      <c r="BE3" s="2"/>
+      <c r="BF3" s="2"/>
+      <c r="BG3" s="2"/>
+      <c r="BH3" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="BF3" s="2" t="s">
+      <c r="BI3" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="BG3" s="2" t="s">
+      <c r="BJ3" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="BH3" s="2" t="s">
+      <c r="BK3" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="BI3" s="2" t="s">
+      <c r="BL3" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="BJ3" s="2" t="s">
+      <c r="BM3" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="BK3" s="2" t="s">
+      <c r="BN3" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="BL3" s="2" t="s">
+      <c r="BO3" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="BM3" s="2" t="s">
+      <c r="BP3" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="BN3" s="2" t="s">
+      <c r="BQ3" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="BO3" s="2" t="s">
+      <c r="BR3" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="BP3" s="2" t="s">
+      <c r="BS3" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="BQ3" s="2"/>
-    </row>
-    <row r="4" spans="1:69" hidden="1" x14ac:dyDescent="0.2">
+      <c r="BT3" s="2"/>
+    </row>
+    <row r="4" spans="1:72" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>354</v>
       </c>
@@ -10254,58 +10317,67 @@
         <v>466</v>
       </c>
       <c r="AZ4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="BC4" t="s">
         <v>117</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BD4" t="s">
         <v>471</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BE4" t="s">
         <v>304</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BF4" t="s">
         <v>307</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BG4" t="s">
         <v>310</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BH4" t="s">
         <v>314</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BI4" t="s">
         <v>318</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BJ4" t="s">
         <v>322</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BK4" t="s">
         <v>325</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BL4" t="s">
         <v>329</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BM4" t="s">
         <v>331</v>
       </c>
-      <c r="BK4" t="s">
+      <c r="BN4" t="s">
         <v>333</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="BO4" t="s">
         <v>335</v>
       </c>
-      <c r="BM4" t="s">
+      <c r="BP4" t="s">
         <v>339</v>
       </c>
-      <c r="BN4" t="s">
+      <c r="BQ4" t="s">
         <v>342</v>
       </c>
-      <c r="BO4" t="s">
+      <c r="BR4" t="s">
         <v>344</v>
       </c>
-      <c r="BP4" t="s">
+      <c r="BS4" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -10377,6 +10449,9 @@
       <c r="BO5" s="1"/>
       <c r="BP5" s="1"/>
       <c r="BQ5" s="1"/>
+      <c r="BR5" s="1"/>
+      <c r="BS5" s="1"/>
+      <c r="BT5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10387,7 +10462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>

--- a/template/hca_template_contributor.xlsx
+++ b/template/hca_template_contributor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenios/Documents/GitHub/geo_to_hca/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC4C2C5-C98E-FF45-AAF4-5A5D4707B54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE85EFB-29E9-774F-9266-21C7E17145CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="21360" windowHeight="17600" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14920" yWindow="5860" windowWidth="21360" windowHeight="17600" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="1103">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -3345,6 +3345,18 @@
   </si>
   <si>
     <t>specimen_from_organism.collection_institute.longitude</t>
+  </si>
+  <si>
+    <t>Institute where the biomaterial was processed.</t>
+  </si>
+  <si>
+    <t>For example: Wellcome Sanger Institute; University of Zurich; University of Pennsylvania</t>
+  </si>
+  <si>
+    <t>cell_suspension.processing_institute</t>
+  </si>
+  <si>
+    <t>INSTITUTE</t>
   </si>
 </sst>
 </file>
@@ -4040,14 +4052,14 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:BH5"/>
+  <dimension ref="A1:BI5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4067,19 +4079,19 @@
     <col min="36" max="36" width="27.6640625" customWidth="1"/>
     <col min="37" max="37" width="26.6640625" customWidth="1"/>
     <col min="38" max="39" width="8.83203125" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="25.6640625" customWidth="1"/>
-    <col min="41" max="41" width="42.6640625" customWidth="1"/>
-    <col min="42" max="42" width="35.6640625" customWidth="1"/>
-    <col min="43" max="44" width="33.6640625" customWidth="1"/>
-    <col min="45" max="53" width="25.6640625" customWidth="1"/>
-    <col min="54" max="55" width="0" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="25.6640625" customWidth="1"/>
-    <col min="57" max="58" width="0" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="25.6640625" customWidth="1"/>
-    <col min="60" max="60" width="37.6640625" customWidth="1"/>
+    <col min="40" max="41" width="25.6640625" customWidth="1"/>
+    <col min="42" max="42" width="42.6640625" customWidth="1"/>
+    <col min="43" max="43" width="35.6640625" customWidth="1"/>
+    <col min="44" max="45" width="33.6640625" customWidth="1"/>
+    <col min="46" max="54" width="25.6640625" customWidth="1"/>
+    <col min="55" max="56" width="0" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="25.6640625" customWidth="1"/>
+    <col min="58" max="59" width="0" hidden="1" customWidth="1"/>
+    <col min="60" max="60" width="25.6640625" customWidth="1"/>
+    <col min="61" max="61" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>472</v>
       </c>
@@ -4201,65 +4213,68 @@
         <v>299</v>
       </c>
       <c r="AO1" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="BH1" s="1"/>
-    </row>
-    <row r="2" spans="1:60" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BI1" s="1"/>
+    </row>
+    <row r="2" spans="1:61" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>116</v>
       </c>
@@ -4381,10 +4396,10 @@
         <v>300</v>
       </c>
       <c r="AO2" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="AP2" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>469</v>
@@ -4393,53 +4408,56 @@
         <v>469</v>
       </c>
       <c r="AS2" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="AT2" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BB2" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BD2" s="2" t="s">
+      <c r="BE2" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BF2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BF2" s="2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BH2" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="BH2" s="2"/>
-    </row>
-    <row r="3" spans="1:60" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BI2" s="2"/>
+    </row>
+    <row r="3" spans="1:61" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -4554,58 +4572,61 @@
       <c r="AN3" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2" t="s">
-        <v>470</v>
-      </c>
+      <c r="AO3" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="AP3" s="2"/>
       <c r="AQ3" s="2" t="s">
         <v>470</v>
       </c>
       <c r="AR3" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="AS3" s="2"/>
+      <c r="AS3" s="2" t="s">
+        <v>470</v>
+      </c>
       <c r="AT3" s="2"/>
       <c r="AU3" s="2"/>
-      <c r="AV3" s="2" t="s">
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="AX3" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="AX3" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="AY3" s="2" t="s">
         <v>321</v>
       </c>
       <c r="AZ3" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="BA3" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="BA3" s="2" t="s">
+      <c r="BB3" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="BB3" s="2" t="s">
+      <c r="BC3" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="BC3" s="2" t="s">
+      <c r="BD3" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="BD3" s="2" t="s">
+      <c r="BE3" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="BE3" s="2" t="s">
+      <c r="BF3" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="BF3" s="2" t="s">
+      <c r="BG3" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="BG3" s="2" t="s">
+      <c r="BH3" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="BH3" s="2"/>
-    </row>
-    <row r="4" spans="1:60" hidden="1" x14ac:dyDescent="0.2">
+      <c r="BI3" s="2"/>
+    </row>
+    <row r="4" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>473</v>
       </c>
@@ -4727,64 +4748,67 @@
         <v>986</v>
       </c>
       <c r="AO4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AP4" t="s">
         <v>354</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AQ4" t="s">
         <v>573</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AR4" t="s">
         <v>575</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AS4" t="s">
         <v>955</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AT4" t="s">
         <v>304</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AU4" t="s">
         <v>307</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AV4" t="s">
         <v>310</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AW4" t="s">
         <v>314</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AX4" t="s">
         <v>318</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AY4" t="s">
         <v>322</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AZ4" t="s">
         <v>325</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BA4" t="s">
         <v>329</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BB4" t="s">
         <v>331</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BC4" t="s">
         <v>333</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BD4" t="s">
         <v>335</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BE4" t="s">
         <v>339</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BF4" t="s">
         <v>342</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BG4" t="s">
         <v>344</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BH4" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4847,6 +4871,7 @@
       <c r="BF5" s="1"/>
       <c r="BG5" s="1"/>
       <c r="BH5" s="1"/>
+      <c r="BI5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9481,12 +9506,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BT5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="AX2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AZ1" sqref="AZ1:BB1048576"/>
+      <selection pane="bottomRight" activeCell="AZ5" sqref="AZ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
